--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_12_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_12_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3210508.159510563</v>
+        <v>3212271.201264816</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>659310.6973477374</v>
+        <v>659310.6973477378</v>
       </c>
     </row>
     <row r="9">
@@ -703,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="R2" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -828,23 +828,23 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="H4" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>6.056421089299432</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="R5" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>5.309829763041575</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U6" t="n">
-        <v>5.309829763041575</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.33498035419292</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>3.33498035419292</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Y7" t="n">
         <v>6.876045741711437</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1.52936184871842</v>
       </c>
       <c r="F8" t="n">
         <v>15.30273751513505</v>
@@ -1150,7 +1150,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>6.84140014930867</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1223,64 +1223,64 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="W9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="H9" t="n">
+      <c r="X9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="I9" t="n">
+      <c r="Y9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>10.75721046822444</v>
+      </c>
+      <c r="K10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="K10" t="n">
-        <v>10.75721046822444</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>298.718370644497</v>
+        <v>298.7183706444968</v>
       </c>
       <c r="C11" t="n">
         <v>281.2574207520238</v>
@@ -1390,7 +1390,7 @@
         <v>229.2894760525401</v>
       </c>
       <c r="I11" t="n">
-        <v>27.94575124096768</v>
+        <v>27.94575124096793</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.77483444465004</v>
+        <v>66.77483444465005</v>
       </c>
       <c r="T11" t="n">
         <v>127.8943865562619</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.81650916295352</v>
+        <v>95.81650916295354</v>
       </c>
       <c r="C13" t="n">
-        <v>83.23135007964406</v>
+        <v>83.23135007964407</v>
       </c>
       <c r="D13" t="n">
-        <v>64.60000199922858</v>
+        <v>64.6000019992286</v>
       </c>
       <c r="E13" t="n">
-        <v>62.4184916275854</v>
+        <v>62.41849162758541</v>
       </c>
       <c r="F13" t="n">
-        <v>61.40557700394747</v>
+        <v>61.40557700394749</v>
       </c>
       <c r="G13" t="n">
-        <v>82.82927169420105</v>
+        <v>82.82927169420098</v>
       </c>
       <c r="H13" t="n">
-        <v>68.0206156786567</v>
+        <v>68.02061567865671</v>
       </c>
       <c r="I13" t="n">
-        <v>36.96454188494583</v>
+        <v>36.96454188494585</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.73895265341471</v>
+        <v>41.7389526534144</v>
       </c>
       <c r="S13" t="n">
         <v>120.0253483908056</v>
@@ -1627,7 +1627,7 @@
         <v>229.2894760525401</v>
       </c>
       <c r="I14" t="n">
-        <v>27.9457512409677</v>
+        <v>27.94575124096793</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.77483444465025</v>
+        <v>66.77483444465005</v>
       </c>
       <c r="T14" t="n">
         <v>127.8943865562619</v>
       </c>
       <c r="U14" t="n">
-        <v>167.1257548507924</v>
+        <v>167.125754850792</v>
       </c>
       <c r="V14" t="n">
         <v>243.7367874511511</v>
@@ -1779,13 +1779,13 @@
         <v>61.40557700394749</v>
       </c>
       <c r="G16" t="n">
-        <v>82.82927169420108</v>
+        <v>82.82927169420107</v>
       </c>
       <c r="H16" t="n">
-        <v>68.0206156786567</v>
+        <v>68.02061567865671</v>
       </c>
       <c r="I16" t="n">
-        <v>36.96454188494611</v>
+        <v>36.96454188494585</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.73895265341449</v>
+        <v>41.7389526534144</v>
       </c>
       <c r="S16" t="n">
         <v>120.0253483908056</v>
@@ -1864,7 +1864,7 @@
         <v>229.2894760525401</v>
       </c>
       <c r="I17" t="n">
-        <v>27.94575124096768</v>
+        <v>27.9457512409677</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.77483444465004</v>
+        <v>66.77483444465025</v>
       </c>
       <c r="T17" t="n">
         <v>127.8943865562619</v>
       </c>
       <c r="U17" t="n">
-        <v>167.1257548507924</v>
+        <v>167.125754850792</v>
       </c>
       <c r="V17" t="n">
         <v>243.7367874511511</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.81650916295352</v>
+        <v>95.81650916295354</v>
       </c>
       <c r="C19" t="n">
-        <v>83.23135007964406</v>
+        <v>83.23135007964407</v>
       </c>
       <c r="D19" t="n">
-        <v>64.60000199922858</v>
+        <v>64.6000019992286</v>
       </c>
       <c r="E19" t="n">
-        <v>62.4184916275854</v>
+        <v>62.41849162758541</v>
       </c>
       <c r="F19" t="n">
-        <v>61.40557700394747</v>
+        <v>61.40557700394749</v>
       </c>
       <c r="G19" t="n">
-        <v>82.82927169420105</v>
+        <v>82.82927169420107</v>
       </c>
       <c r="H19" t="n">
-        <v>68.0206156786567</v>
+        <v>68.02061567865671</v>
       </c>
       <c r="I19" t="n">
-        <v>36.96454188494583</v>
+        <v>36.96454188494585</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.73895265341439</v>
+        <v>41.7389526534144</v>
       </c>
       <c r="S19" t="n">
         <v>120.0253483908056</v>
@@ -2067,7 +2067,7 @@
         <v>202.5075273176072</v>
       </c>
       <c r="X19" t="n">
-        <v>141.6941843700534</v>
+        <v>141.6941843700533</v>
       </c>
       <c r="Y19" t="n">
         <v>134.569182333111</v>
@@ -2101,7 +2101,7 @@
         <v>229.2894760525401</v>
       </c>
       <c r="I20" t="n">
-        <v>27.9457512409677</v>
+        <v>27.94575124096793</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>66.77483444465025</v>
+        <v>66.77483444465005</v>
       </c>
       <c r="T20" t="n">
         <v>127.8943865562619</v>
       </c>
       <c r="U20" t="n">
-        <v>167.1257548507934</v>
+        <v>167.125754850792</v>
       </c>
       <c r="V20" t="n">
         <v>243.7367874511511</v>
@@ -2253,10 +2253,10 @@
         <v>61.40557700394749</v>
       </c>
       <c r="G22" t="n">
-        <v>82.82927169420107</v>
+        <v>82.82927169420108</v>
       </c>
       <c r="H22" t="n">
-        <v>68.02061567865671</v>
+        <v>68.0206156786567</v>
       </c>
       <c r="I22" t="n">
         <v>36.96454188494585</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.77483444465005</v>
+        <v>66.77483444465025</v>
       </c>
       <c r="T23" t="n">
         <v>127.8943865562619</v>
       </c>
       <c r="U23" t="n">
-        <v>167.1257548507924</v>
+        <v>167.125754850792</v>
       </c>
       <c r="V23" t="n">
         <v>243.7367874511511</v>
@@ -2490,10 +2490,10 @@
         <v>61.40557700394749</v>
       </c>
       <c r="G25" t="n">
-        <v>82.82927169420108</v>
+        <v>82.82927169420107</v>
       </c>
       <c r="H25" t="n">
-        <v>68.0206156786567</v>
+        <v>68.02061567865671</v>
       </c>
       <c r="I25" t="n">
         <v>36.96454188494585</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.73895265341427</v>
+        <v>41.7389526534144</v>
       </c>
       <c r="S25" t="n">
         <v>120.0253483908056</v>
       </c>
       <c r="T25" t="n">
-        <v>139.0325618340362</v>
+        <v>139.0325618340364</v>
       </c>
       <c r="U25" t="n">
-        <v>202.2410363386741</v>
+        <v>202.241036338674</v>
       </c>
       <c r="V25" t="n">
         <v>168.1221723048442</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>316.9704837261737</v>
+        <v>316.9704837261736</v>
       </c>
       <c r="C26" t="n">
         <v>299.5095338337006</v>
@@ -2563,19 +2563,19 @@
         <v>288.919683683376</v>
       </c>
       <c r="E26" t="n">
-        <v>316.1670121349549</v>
+        <v>316.1670121349548</v>
       </c>
       <c r="F26" t="n">
         <v>341.1126878044045</v>
       </c>
       <c r="G26" t="n">
-        <v>346.984041602069</v>
+        <v>346.9840416020689</v>
       </c>
       <c r="H26" t="n">
-        <v>247.5415891342169</v>
+        <v>247.5415891342168</v>
       </c>
       <c r="I26" t="n">
-        <v>46.19786432264407</v>
+        <v>46.19786432264475</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>85.02694752632692</v>
+        <v>85.02694752632681</v>
       </c>
       <c r="T26" t="n">
-        <v>146.1464996379388</v>
+        <v>146.1464996379387</v>
       </c>
       <c r="U26" t="n">
         <v>185.3778679324688</v>
       </c>
       <c r="V26" t="n">
-        <v>261.988900532828</v>
+        <v>261.9889005328279</v>
       </c>
       <c r="W26" t="n">
-        <v>283.4776107801061</v>
+        <v>283.477610780106</v>
       </c>
       <c r="X26" t="n">
         <v>303.9677427411621</v>
       </c>
       <c r="Y26" t="n">
-        <v>320.4745807187467</v>
+        <v>320.4745807187466</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>114.0686222446304</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>101.4834631613209</v>
+        <v>101.4834631613208</v>
       </c>
       <c r="D28" t="n">
-        <v>54.25445853021436</v>
+        <v>62.38372766397976</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>79.65769008562425</v>
       </c>
       <c r="G28" t="n">
-        <v>101.0813847758779</v>
+        <v>101.0813847758778</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>86.27272876033348</v>
       </c>
       <c r="I28" t="n">
-        <v>55.2166549666227</v>
+        <v>55.21665496662261</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>59.99106573509125</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>138.2774614724824</v>
       </c>
       <c r="T28" t="n">
-        <v>157.2846749157133</v>
+        <v>157.2846749157132</v>
       </c>
       <c r="U28" t="n">
         <v>220.4931494203508</v>
       </c>
       <c r="V28" t="n">
-        <v>186.3742853865211</v>
+        <v>186.374285386521</v>
       </c>
       <c r="W28" t="n">
-        <v>220.7596403992841</v>
+        <v>220.759640399284</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>152.8212954147879</v>
+        <v>152.8212954147878</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>341.1126878044045</v>
       </c>
       <c r="G29" t="n">
-        <v>346.9840416020689</v>
+        <v>346.9840416020688</v>
       </c>
       <c r="H29" t="n">
-        <v>247.5415891342169</v>
+        <v>247.5415891342168</v>
       </c>
       <c r="I29" t="n">
-        <v>46.19786432264407</v>
+        <v>46.19786432264446</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>85.02694752632686</v>
+        <v>85.02694752632682</v>
       </c>
       <c r="T29" t="n">
         <v>146.1464996379387</v>
       </c>
       <c r="U29" t="n">
-        <v>185.3778679324688</v>
+        <v>185.3778679324687</v>
       </c>
       <c r="V29" t="n">
-        <v>261.988900532828</v>
+        <v>261.9889005328279</v>
       </c>
       <c r="W29" t="n">
         <v>283.477610780106</v>
@@ -2860,7 +2860,7 @@
         <v>303.9677427411621</v>
       </c>
       <c r="Y29" t="n">
-        <v>320.4745807187467</v>
+        <v>320.4745807187466</v>
       </c>
     </row>
     <row r="30">
@@ -2952,22 +2952,22 @@
         <v>114.0686222446303</v>
       </c>
       <c r="C31" t="n">
-        <v>101.4834631613209</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>82.85211508090541</v>
+        <v>82.85211508090536</v>
       </c>
       <c r="E31" t="n">
-        <v>80.67060470926222</v>
+        <v>80.67060470926218</v>
       </c>
       <c r="F31" t="n">
-        <v>79.6576900856243</v>
+        <v>79.65769008562425</v>
       </c>
       <c r="G31" t="n">
-        <v>101.0813847758779</v>
+        <v>39.91226599698638</v>
       </c>
       <c r="H31" t="n">
-        <v>86.27272876033352</v>
+        <v>86.27272876033348</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>138.2774614724824</v>
       </c>
       <c r="T31" t="n">
-        <v>157.2846749157132</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>220.4931494203508</v>
       </c>
       <c r="V31" t="n">
-        <v>186.3742853865211</v>
+        <v>186.374285386521</v>
       </c>
       <c r="W31" t="n">
-        <v>220.7596403992841</v>
+        <v>220.759640399284</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>159.9462974517302</v>
       </c>
       <c r="Y31" t="n">
-        <v>131.1077974830739</v>
+        <v>152.8212954147878</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>245.3614354385967</v>
       </c>
       <c r="I32" t="n">
-        <v>44.0177106270243</v>
+        <v>44.01771062702433</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.84679383070666</v>
+        <v>82.84679383070669</v>
       </c>
       <c r="T32" t="n">
-        <v>143.9663459423185</v>
+        <v>143.9663459423186</v>
       </c>
       <c r="U32" t="n">
-        <v>183.1977142368496</v>
+        <v>183.1977142368492</v>
       </c>
       <c r="V32" t="n">
         <v>259.8087468372078</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.8884685490101</v>
+        <v>111.8884685490102</v>
       </c>
       <c r="C34" t="n">
-        <v>99.30330946570068</v>
+        <v>5.811390194535738</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>98.90123108025767</v>
+        <v>98.9012310802577</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>84.09257506471334</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.81091203947101</v>
+        <v>57.81091203947103</v>
       </c>
       <c r="S34" t="n">
         <v>136.0973077768622</v>
@@ -3243,7 +3243,7 @@
         <v>155.104521220093</v>
       </c>
       <c r="U34" t="n">
-        <v>208.9136515182795</v>
+        <v>218.3129957247306</v>
       </c>
       <c r="V34" t="n">
         <v>184.1941316909009</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.77483444465007</v>
+        <v>66.77483444465005</v>
       </c>
       <c r="T35" t="n">
         <v>127.8943865562619</v>
       </c>
       <c r="U35" t="n">
-        <v>167.1257548507929</v>
+        <v>167.1257548507915</v>
       </c>
       <c r="V35" t="n">
         <v>243.7367874511511</v>
@@ -3362,10 +3362,10 @@
         <v>135.9762908113693</v>
       </c>
       <c r="H36" t="n">
-        <v>99.03091604897634</v>
+        <v>99.03091604897635</v>
       </c>
       <c r="I36" t="n">
-        <v>42.32326942179068</v>
+        <v>42.32326942179069</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>15.26986820235483</v>
+        <v>15.26986820235484</v>
       </c>
       <c r="S36" t="n">
         <v>146.2875412790659</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.81650916295355</v>
+        <v>95.81650916295354</v>
       </c>
       <c r="C37" t="n">
-        <v>83.23135007964409</v>
+        <v>83.23135007964407</v>
       </c>
       <c r="D37" t="n">
-        <v>64.60000199922861</v>
+        <v>64.6000019992286</v>
       </c>
       <c r="E37" t="n">
-        <v>62.41849162758542</v>
+        <v>62.41849162758541</v>
       </c>
       <c r="F37" t="n">
-        <v>61.4055770039475</v>
+        <v>61.40557700394749</v>
       </c>
       <c r="G37" t="n">
-        <v>82.8292716942011</v>
+        <v>82.82927169420107</v>
       </c>
       <c r="H37" t="n">
         <v>68.02061567865671</v>
       </c>
       <c r="I37" t="n">
-        <v>36.96454188494586</v>
+        <v>36.96454188494585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.73895265341442</v>
+        <v>41.73895265341441</v>
       </c>
       <c r="S37" t="n">
         <v>120.0253483908056</v>
@@ -3559,7 +3559,7 @@
         <v>127.8943865562619</v>
       </c>
       <c r="U38" t="n">
-        <v>167.1257548507924</v>
+        <v>167.1257548507929</v>
       </c>
       <c r="V38" t="n">
         <v>243.7367874511511</v>
@@ -3717,7 +3717,7 @@
         <v>139.0325618340364</v>
       </c>
       <c r="U40" t="n">
-        <v>202.241036338674</v>
+        <v>202.2410363386741</v>
       </c>
       <c r="V40" t="n">
         <v>168.1221723048442</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>364.4817285818037</v>
+        <v>364.4817285818038</v>
       </c>
       <c r="C41" t="n">
         <v>347.0207786893308</v>
       </c>
       <c r="D41" t="n">
-        <v>336.4309285390061</v>
+        <v>336.4309285390062</v>
       </c>
       <c r="E41" t="n">
-        <v>363.6782569905849</v>
+        <v>363.678256990585</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>388.6239326600347</v>
       </c>
       <c r="G41" t="n">
-        <v>394.4952864576991</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>295.052833989847</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>173.5575972510236</v>
+        <v>193.6577444935689</v>
       </c>
       <c r="U41" t="n">
-        <v>232.8891127880989</v>
+        <v>232.889112788099</v>
       </c>
       <c r="V41" t="n">
         <v>309.5001453884581</v>
@@ -3805,10 +3805,10 @@
         <v>330.9888556357362</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>351.4789875967923</v>
       </c>
       <c r="Y41" t="n">
-        <v>367.9858255743768</v>
+        <v>2.278044532702975</v>
       </c>
     </row>
     <row r="42">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>161.5798671002605</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>130.3633599365356</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>128.1818495648924</v>
       </c>
       <c r="F43" t="n">
-        <v>53.04339111422259</v>
+        <v>84.57405659693626</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>102.7278998222529</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>204.7959197713434</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>268.0043942759809</v>
+        <v>268.004394275981</v>
       </c>
       <c r="V43" t="n">
-        <v>233.8855302421512</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>268.2708852549142</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>207.4575423073604</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>364.4817285818037</v>
+        <v>364.4817285818038</v>
       </c>
       <c r="C44" t="n">
         <v>347.0207786893308</v>
       </c>
       <c r="D44" t="n">
-        <v>133.2377891052233</v>
+        <v>336.4309285390062</v>
       </c>
       <c r="E44" t="n">
-        <v>363.6782569905849</v>
+        <v>363.678256990585</v>
       </c>
       <c r="F44" t="n">
-        <v>388.6239326600346</v>
+        <v>388.6239326600347</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>394.4952864576991</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>295.052833989847</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.538192381957</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>193.6577444935689</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>232.8891127880989</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>309.5001453884581</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>330.9888556357362</v>
+        <v>306.8327908064886</v>
       </c>
       <c r="X44" t="n">
-        <v>351.4789875967922</v>
+        <v>351.4789875967923</v>
       </c>
       <c r="Y44" t="n">
         <v>367.9858255743768</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>148.9947080169511</v>
       </c>
       <c r="D46" t="n">
-        <v>91.33860622923606</v>
+        <v>130.3633599365356</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>128.1818495648924</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>127.1689349412545</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>102.7278998222528</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>107.5023105907214</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>185.7887063281125</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>204.7959197713434</v>
       </c>
       <c r="U46" t="n">
-        <v>268.0043942759809</v>
+        <v>268.004394275981</v>
       </c>
       <c r="V46" t="n">
-        <v>233.8855302421512</v>
+        <v>182.0708212519145</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>200.332540270418</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4336,7 +4336,7 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L2" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M2" t="n">
         <v>7.082327113962777</v>
@@ -4351,25 +4351,25 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q2" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R2" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S2" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T2" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U2" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V2" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W2" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X2" t="n">
         <v>14.44108515774386</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="E4" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="G4" t="n">
         <v>20.55868221764227</v>
       </c>
-      <c r="C4" t="n">
-        <v>20.55868221764227</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.55868221764227</v>
-      </c>
-      <c r="E4" t="n">
-        <v>20.55868221764227</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>13.6131814684388</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>6.667680719235332</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.5500836593369149</v>
-      </c>
       <c r="J4" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="K4" t="n">
         <v>0.5500836593369149</v>
@@ -4509,31 +4509,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F5" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="J5" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M5" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N5" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O5" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P5" t="n">
         <v>27.50418296684575</v>
@@ -4591,28 +4591,28 @@
         <v>20.55868221764227</v>
       </c>
       <c r="R5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.2497170613261</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C6" t="n">
-        <v>8.2497170613261</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="D6" t="n">
-        <v>8.2497170613261</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="E6" t="n">
-        <v>8.2497170613261</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="F6" t="n">
-        <v>8.2497170613261</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="G6" t="n">
-        <v>8.2497170613261</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="H6" t="n">
         <v>1.304216312122629</v>
@@ -4649,19 +4649,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K6" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L6" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M6" t="n">
-        <v>13.8896123982571</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N6" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P6" t="n">
         <v>27.50418296684575</v>
@@ -4670,28 +4670,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S6" t="n">
         <v>20.55868221764227</v>
       </c>
       <c r="T6" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U6" t="n">
-        <v>15.19521781052957</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="V6" t="n">
-        <v>15.19521781052957</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W6" t="n">
-        <v>15.19521781052957</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X6" t="n">
-        <v>15.19521781052957</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.2497170613261</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K7" t="n">
         <v>0.5500836593369149</v>
@@ -4746,31 +4746,31 @@
         <v>24.75525293138463</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.75525293138463</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R7" t="n">
-        <v>24.75525293138463</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S7" t="n">
-        <v>24.75525293138463</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T7" t="n">
-        <v>24.75525293138463</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U7" t="n">
-        <v>24.75525293138463</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V7" t="n">
-        <v>24.75525293138463</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W7" t="n">
-        <v>24.75525293138463</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X7" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="C8" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="D8" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="E8" t="n">
+        <v>59.66614011233978</v>
+      </c>
+      <c r="F8" t="n">
         <v>44.20882949099123</v>
       </c>
-      <c r="C8" t="n">
-        <v>44.20882949099123</v>
-      </c>
-      <c r="D8" t="n">
-        <v>44.20882949099123</v>
-      </c>
-      <c r="E8" t="n">
-        <v>44.20882949099123</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>28.75151886964269</v>
-      </c>
-      <c r="G8" t="n">
-        <v>13.29420824829416</v>
       </c>
       <c r="H8" t="n">
         <v>13.29420824829416</v>
@@ -4807,49 +4807,49 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L8" t="n">
-        <v>1.224219001210804</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M8" t="n">
-        <v>15.7618196405891</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="N8" t="n">
-        <v>30.9115297805728</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="O8" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S8" t="n">
-        <v>44.20882949099123</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T8" t="n">
-        <v>44.20882949099123</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U8" t="n">
-        <v>44.20882949099123</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V8" t="n">
-        <v>44.20882949099123</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W8" t="n">
-        <v>44.20882949099123</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X8" t="n">
-        <v>44.20882949099123</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.20882949099123</v>
+        <v>61.2109500605402</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F9" t="n">
-        <v>48.35028351804213</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G9" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J9" t="n">
         <v>1.224219001210804</v>
@@ -4889,10 +4889,10 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M9" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="N9" t="n">
         <v>16.37392914119451</v>
@@ -4919,16 +4919,16 @@
         <v>61.2109500605402</v>
       </c>
       <c r="V9" t="n">
-        <v>61.2109500605402</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="W9" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="X9" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="10">
@@ -4962,7 +4962,7 @@
         <v>27.54739878238201</v>
       </c>
       <c r="J10" t="n">
-        <v>12.09008816103347</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="K10" t="n">
         <v>1.224219001210804</v>
@@ -4986,10 +4986,10 @@
         <v>43.00470940373054</v>
       </c>
       <c r="R10" t="n">
-        <v>27.54739878238201</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="S10" t="n">
-        <v>27.54739878238201</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="T10" t="n">
         <v>27.54739878238201</v>
@@ -5020,22 +5020,22 @@
         <v>1848.913518369899</v>
       </c>
       <c r="C11" t="n">
-        <v>1564.815113569874</v>
+        <v>1564.815113569875</v>
       </c>
       <c r="D11" t="n">
         <v>1291.413527103512</v>
       </c>
       <c r="E11" t="n">
-        <v>990.489386645655</v>
+        <v>990.4893866456553</v>
       </c>
       <c r="F11" t="n">
-        <v>664.3675939964351</v>
+        <v>664.3675939964353</v>
       </c>
       <c r="G11" t="n">
-        <v>332.3151409455338</v>
+        <v>332.3151409455341</v>
       </c>
       <c r="H11" t="n">
-        <v>100.7096095793317</v>
+        <v>100.709609579332</v>
       </c>
       <c r="I11" t="n">
         <v>72.48157802279871</v>
@@ -5047,7 +5047,7 @@
         <v>700.1771801311742</v>
       </c>
       <c r="L11" t="n">
-        <v>1002.924846445155</v>
+        <v>1279.472014349348</v>
       </c>
       <c r="M11" t="n">
         <v>1664.108513150717</v>
@@ -5126,13 +5126,13 @@
         <v>543.5504928709224</v>
       </c>
       <c r="L12" t="n">
-        <v>700.2750566363272</v>
+        <v>1067.406998486752</v>
       </c>
       <c r="M12" t="n">
-        <v>1363.570111615215</v>
+        <v>1269.654040353139</v>
       </c>
       <c r="N12" t="n">
-        <v>1778.769374961255</v>
+        <v>1491.662604528622</v>
       </c>
       <c r="O12" t="n">
         <v>1959.644043089557</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>536.5925375866462</v>
+        <v>536.5925375866464</v>
       </c>
       <c r="C13" t="n">
-        <v>452.520466799127</v>
+        <v>452.5204667991271</v>
       </c>
       <c r="D13" t="n">
         <v>387.267939527179</v>
@@ -5190,7 +5190,7 @@
         <v>262.1931227276508</v>
       </c>
       <c r="G13" t="n">
-        <v>178.5271917234073</v>
+        <v>178.5271917234074</v>
       </c>
       <c r="H13" t="n">
         <v>109.8194991187036</v>
@@ -5205,10 +5205,10 @@
         <v>336.4285058693216</v>
       </c>
       <c r="L13" t="n">
-        <v>615.6279340571169</v>
+        <v>615.6279340571168</v>
       </c>
       <c r="M13" t="n">
-        <v>915.872314828258</v>
+        <v>915.8723148282579</v>
       </c>
       <c r="N13" t="n">
         <v>1216.389894841553</v>
@@ -5220,7 +5220,7 @@
         <v>1702.026554971275</v>
       </c>
       <c r="Q13" t="n">
-        <v>1794.923320117454</v>
+        <v>1794.923320117455</v>
       </c>
       <c r="R13" t="n">
         <v>1752.762761881682</v>
@@ -5235,16 +5235,16 @@
         <v>1286.804229999343</v>
       </c>
       <c r="V13" t="n">
-        <v>1116.983853933843</v>
+        <v>1116.983853933844</v>
       </c>
       <c r="W13" t="n">
-        <v>912.4307960372705</v>
+        <v>912.4307960372706</v>
       </c>
       <c r="X13" t="n">
-        <v>769.3053572796408</v>
+        <v>769.3053572796409</v>
       </c>
       <c r="Y13" t="n">
-        <v>633.3768902764983</v>
+        <v>633.3768902764984</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1848.913518369898</v>
+        <v>1848.913518369899</v>
       </c>
       <c r="C14" t="n">
-        <v>1564.815113569874</v>
+        <v>1564.815113569875</v>
       </c>
       <c r="D14" t="n">
-        <v>1291.413527103511</v>
+        <v>1291.413527103512</v>
       </c>
       <c r="E14" t="n">
-        <v>990.4893866456548</v>
+        <v>990.4893866456553</v>
       </c>
       <c r="F14" t="n">
-        <v>664.3675939964349</v>
+        <v>664.3675939964353</v>
       </c>
       <c r="G14" t="n">
-        <v>332.3151409455338</v>
+        <v>332.3151409455341</v>
       </c>
       <c r="H14" t="n">
-        <v>100.7096095793317</v>
+        <v>100.709609579332</v>
       </c>
       <c r="I14" t="n">
         <v>72.48157802279871</v>
@@ -5311,19 +5311,19 @@
         <v>3427.443324371337</v>
       </c>
       <c r="U14" t="n">
-        <v>3258.629430582658</v>
+        <v>3258.629430582659</v>
       </c>
       <c r="V14" t="n">
-        <v>3012.430655379475</v>
+        <v>3012.430655379476</v>
       </c>
       <c r="W14" t="n">
-        <v>2744.526112249749</v>
+        <v>2744.52611224975</v>
       </c>
       <c r="X14" t="n">
-        <v>2455.924466129056</v>
+        <v>2455.924466129057</v>
       </c>
       <c r="Y14" t="n">
-        <v>2150.649246293632</v>
+        <v>2150.649246293633</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>199.6236307526269</v>
       </c>
       <c r="K15" t="n">
-        <v>281.7299082284696</v>
+        <v>543.5504928709224</v>
       </c>
       <c r="L15" t="n">
-        <v>438.4544719938744</v>
+        <v>1067.406998486752</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.749526972762</v>
+        <v>1269.654040353139</v>
       </c>
       <c r="N15" t="n">
-        <v>1704.123819830831</v>
+        <v>1491.662604528622</v>
       </c>
       <c r="O15" t="n">
-        <v>2274.922184043095</v>
+        <v>1959.644043089557</v>
       </c>
       <c r="P15" t="n">
         <v>2400.7569851652</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>536.5925375866466</v>
+        <v>536.5925375866465</v>
       </c>
       <c r="C16" t="n">
-        <v>452.5204667991273</v>
+        <v>452.5204667991272</v>
       </c>
       <c r="D16" t="n">
-        <v>387.2679395271793</v>
+        <v>387.2679395271791</v>
       </c>
       <c r="E16" t="n">
-        <v>324.2189580851738</v>
+        <v>324.2189580851737</v>
       </c>
       <c r="F16" t="n">
-        <v>262.1931227276511</v>
+        <v>262.1931227276509</v>
       </c>
       <c r="G16" t="n">
-        <v>178.5271917234076</v>
+        <v>178.5271917234074</v>
       </c>
       <c r="H16" t="n">
-        <v>109.8194991187039</v>
+        <v>109.8194991187036</v>
       </c>
       <c r="I16" t="n">
         <v>72.48157802279871</v>
       </c>
       <c r="J16" t="n">
-        <v>143.4598475287445</v>
+        <v>143.4598475287446</v>
       </c>
       <c r="K16" t="n">
         <v>336.4285058693216</v>
@@ -5445,7 +5445,7 @@
         <v>615.6279340571168</v>
       </c>
       <c r="M16" t="n">
-        <v>915.872314828258</v>
+        <v>915.8723148282579</v>
       </c>
       <c r="N16" t="n">
         <v>1216.389894841553</v>
@@ -5457,7 +5457,7 @@
         <v>1702.026554971275</v>
       </c>
       <c r="Q16" t="n">
-        <v>1794.923320117454</v>
+        <v>1794.923320117455</v>
       </c>
       <c r="R16" t="n">
         <v>1752.762761881682</v>
@@ -5466,7 +5466,7 @@
         <v>1631.525036234404</v>
       </c>
       <c r="T16" t="n">
-        <v>1491.088105088913</v>
+        <v>1491.088105088912</v>
       </c>
       <c r="U16" t="n">
         <v>1286.804229999343</v>
@@ -5475,13 +5475,13 @@
         <v>1116.983853933844</v>
       </c>
       <c r="W16" t="n">
-        <v>912.4307960372709</v>
+        <v>912.4307960372707</v>
       </c>
       <c r="X16" t="n">
-        <v>769.3053572796412</v>
+        <v>769.305357279641</v>
       </c>
       <c r="Y16" t="n">
-        <v>633.3768902764987</v>
+        <v>633.3768902764986</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1848.913518369898</v>
+        <v>1848.913518369899</v>
       </c>
       <c r="C17" t="n">
-        <v>1564.815113569874</v>
+        <v>1564.815113569875</v>
       </c>
       <c r="D17" t="n">
         <v>1291.413527103511</v>
@@ -5503,10 +5503,10 @@
         <v>990.4893866456548</v>
       </c>
       <c r="F17" t="n">
-        <v>664.3675939964348</v>
+        <v>664.3675939964349</v>
       </c>
       <c r="G17" t="n">
-        <v>332.3151409455337</v>
+        <v>332.3151409455338</v>
       </c>
       <c r="H17" t="n">
         <v>100.7096095793317</v>
@@ -5548,19 +5548,19 @@
         <v>3427.443324371337</v>
       </c>
       <c r="U17" t="n">
-        <v>3258.629430582658</v>
+        <v>3258.629430582659</v>
       </c>
       <c r="V17" t="n">
-        <v>3012.430655379475</v>
+        <v>3012.430655379476</v>
       </c>
       <c r="W17" t="n">
-        <v>2744.526112249749</v>
+        <v>2744.52611224975</v>
       </c>
       <c r="X17" t="n">
-        <v>2455.924466129056</v>
+        <v>2455.924466129057</v>
       </c>
       <c r="Y17" t="n">
-        <v>2150.649246293632</v>
+        <v>2150.649246293633</v>
       </c>
     </row>
     <row r="18">
@@ -5603,16 +5603,16 @@
         <v>1067.406998486752</v>
       </c>
       <c r="M18" t="n">
-        <v>1269.654040353139</v>
+        <v>1556.760810785772</v>
       </c>
       <c r="N18" t="n">
-        <v>1491.662604528622</v>
+        <v>1778.769374961255</v>
       </c>
       <c r="O18" t="n">
-        <v>2062.460968740886</v>
+        <v>1959.644043089557</v>
       </c>
       <c r="P18" t="n">
-        <v>2503.573910816529</v>
+        <v>2400.7569851652</v>
       </c>
       <c r="Q18" t="n">
         <v>2642.931535724801</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>536.5925375866462</v>
+        <v>536.5925375866465</v>
       </c>
       <c r="C19" t="n">
-        <v>452.520466799127</v>
+        <v>452.5204667991272</v>
       </c>
       <c r="D19" t="n">
-        <v>387.267939527179</v>
+        <v>387.2679395271791</v>
       </c>
       <c r="E19" t="n">
-        <v>324.2189580851735</v>
+        <v>324.2189580851737</v>
       </c>
       <c r="F19" t="n">
-        <v>262.1931227276508</v>
+        <v>262.1931227276509</v>
       </c>
       <c r="G19" t="n">
-        <v>178.5271917234073</v>
+        <v>178.5271917234074</v>
       </c>
       <c r="H19" t="n">
         <v>109.8194991187036</v>
@@ -5673,28 +5673,28 @@
         <v>72.48157802279871</v>
       </c>
       <c r="J19" t="n">
-        <v>143.4598475287443</v>
+        <v>143.4598475287446</v>
       </c>
       <c r="K19" t="n">
-        <v>336.4285058693214</v>
+        <v>336.4285058693216</v>
       </c>
       <c r="L19" t="n">
-        <v>615.6279340571167</v>
+        <v>615.6279340571168</v>
       </c>
       <c r="M19" t="n">
-        <v>915.8723148282578</v>
+        <v>915.8723148282579</v>
       </c>
       <c r="N19" t="n">
-        <v>1216.389894841552</v>
+        <v>1216.389894841553</v>
       </c>
       <c r="O19" t="n">
         <v>1484.299674031717</v>
       </c>
       <c r="P19" t="n">
-        <v>1702.026554971274</v>
+        <v>1702.026554971275</v>
       </c>
       <c r="Q19" t="n">
-        <v>1794.923320117454</v>
+        <v>1794.923320117455</v>
       </c>
       <c r="R19" t="n">
         <v>1752.762761881682</v>
@@ -5709,16 +5709,16 @@
         <v>1286.804229999343</v>
       </c>
       <c r="V19" t="n">
-        <v>1116.983853933843</v>
+        <v>1116.983853933844</v>
       </c>
       <c r="W19" t="n">
-        <v>912.4307960372705</v>
+        <v>912.4307960372706</v>
       </c>
       <c r="X19" t="n">
-        <v>769.3053572796408</v>
+        <v>769.305357279641</v>
       </c>
       <c r="Y19" t="n">
-        <v>633.3768902764983</v>
+        <v>633.3768902764986</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1848.913518369897</v>
+        <v>1848.913518369899</v>
       </c>
       <c r="C20" t="n">
-        <v>1564.815113569873</v>
+        <v>1564.815113569875</v>
       </c>
       <c r="D20" t="n">
-        <v>1291.413527103511</v>
+        <v>1291.413527103512</v>
       </c>
       <c r="E20" t="n">
-        <v>990.4893866456548</v>
+        <v>990.4893866456553</v>
       </c>
       <c r="F20" t="n">
-        <v>664.3675939964349</v>
+        <v>664.3675939964353</v>
       </c>
       <c r="G20" t="n">
-        <v>332.3151409455338</v>
+        <v>332.3151409455341</v>
       </c>
       <c r="H20" t="n">
-        <v>100.7096095793317</v>
+        <v>100.709609579332</v>
       </c>
       <c r="I20" t="n">
         <v>72.48157802279871</v>
@@ -5761,19 +5761,19 @@
         <v>1279.472014349348</v>
       </c>
       <c r="M20" t="n">
-        <v>1674.649668017561</v>
+        <v>1664.108513150717</v>
       </c>
       <c r="N20" t="n">
-        <v>2331.899980150848</v>
+        <v>2321.358825284004</v>
       </c>
       <c r="O20" t="n">
-        <v>2907.335174643053</v>
+        <v>2896.794019776208</v>
       </c>
       <c r="P20" t="n">
-        <v>3360.781417070872</v>
+        <v>3350.240262204028</v>
       </c>
       <c r="Q20" t="n">
-        <v>3624.078901139936</v>
+        <v>3613.537746273091</v>
       </c>
       <c r="R20" t="n">
         <v>3624.078901139936</v>
@@ -5785,19 +5785,19 @@
         <v>3427.443324371337</v>
       </c>
       <c r="U20" t="n">
-        <v>3258.629430582657</v>
+        <v>3258.629430582659</v>
       </c>
       <c r="V20" t="n">
-        <v>3012.430655379474</v>
+        <v>3012.430655379476</v>
       </c>
       <c r="W20" t="n">
-        <v>2744.526112249748</v>
+        <v>2744.52611224975</v>
       </c>
       <c r="X20" t="n">
-        <v>2455.924466129055</v>
+        <v>2455.924466129057</v>
       </c>
       <c r="Y20" t="n">
-        <v>2150.649246293631</v>
+        <v>2150.649246293633</v>
       </c>
     </row>
     <row r="21">
@@ -5834,16 +5834,16 @@
         <v>199.6236307526269</v>
       </c>
       <c r="K21" t="n">
-        <v>333.3165584699001</v>
+        <v>543.5504928709224</v>
       </c>
       <c r="L21" t="n">
-        <v>490.0411222353049</v>
+        <v>1067.406998486752</v>
       </c>
       <c r="M21" t="n">
-        <v>692.2881641016924</v>
+        <v>1269.654040353139</v>
       </c>
       <c r="N21" t="n">
-        <v>1388.845678877293</v>
+        <v>1491.662604528622</v>
       </c>
       <c r="O21" t="n">
         <v>1959.644043089557</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>536.5925375866465</v>
+        <v>536.5925375866461</v>
       </c>
       <c r="C22" t="n">
-        <v>452.5204667991272</v>
+        <v>452.5204667991269</v>
       </c>
       <c r="D22" t="n">
-        <v>387.2679395271791</v>
+        <v>387.2679395271788</v>
       </c>
       <c r="E22" t="n">
-        <v>324.2189580851737</v>
+        <v>324.2189580851733</v>
       </c>
       <c r="F22" t="n">
-        <v>262.1931227276509</v>
+        <v>262.1931227276506</v>
       </c>
       <c r="G22" t="n">
         <v>178.5271917234074</v>
@@ -5916,22 +5916,22 @@
         <v>336.4285058693216</v>
       </c>
       <c r="L22" t="n">
-        <v>615.6279340571169</v>
+        <v>615.6279340571168</v>
       </c>
       <c r="M22" t="n">
-        <v>915.872314828258</v>
+        <v>915.8723148282573</v>
       </c>
       <c r="N22" t="n">
-        <v>1216.389894841553</v>
+        <v>1216.389894841552</v>
       </c>
       <c r="O22" t="n">
         <v>1484.299674031717</v>
       </c>
       <c r="P22" t="n">
-        <v>1702.026554971275</v>
+        <v>1702.026554971274</v>
       </c>
       <c r="Q22" t="n">
-        <v>1794.923320117455</v>
+        <v>1794.923320117454</v>
       </c>
       <c r="R22" t="n">
         <v>1752.762761881682</v>
@@ -5946,16 +5946,16 @@
         <v>1286.804229999343</v>
       </c>
       <c r="V22" t="n">
-        <v>1116.983853933844</v>
+        <v>1116.983853933843</v>
       </c>
       <c r="W22" t="n">
-        <v>912.4307960372707</v>
+        <v>912.4307960372704</v>
       </c>
       <c r="X22" t="n">
-        <v>769.305357279641</v>
+        <v>769.3053572796407</v>
       </c>
       <c r="Y22" t="n">
-        <v>633.3768902764986</v>
+        <v>633.3768902764982</v>
       </c>
     </row>
     <row r="23">
@@ -5974,13 +5974,13 @@
         <v>1291.413527103511</v>
       </c>
       <c r="E23" t="n">
-        <v>990.4893866456546</v>
+        <v>990.4893866456548</v>
       </c>
       <c r="F23" t="n">
-        <v>664.3675939964346</v>
+        <v>664.3675939964349</v>
       </c>
       <c r="G23" t="n">
-        <v>332.3151409455334</v>
+        <v>332.3151409455338</v>
       </c>
       <c r="H23" t="n">
         <v>100.7096095793317</v>
@@ -5992,25 +5992,25 @@
         <v>275.3640869166192</v>
       </c>
       <c r="K23" t="n">
-        <v>423.6300122269814</v>
+        <v>700.1771801311742</v>
       </c>
       <c r="L23" t="n">
-        <v>1002.924846445155</v>
+        <v>1279.472014349348</v>
       </c>
       <c r="M23" t="n">
-        <v>1664.108513150717</v>
+        <v>1674.649668017561</v>
       </c>
       <c r="N23" t="n">
-        <v>2321.358825284004</v>
+        <v>2331.899980150848</v>
       </c>
       <c r="O23" t="n">
-        <v>2896.794019776208</v>
+        <v>2907.335174643053</v>
       </c>
       <c r="P23" t="n">
-        <v>3350.240262204028</v>
+        <v>3360.781417070872</v>
       </c>
       <c r="Q23" t="n">
-        <v>3613.537746273091</v>
+        <v>3624.078901139936</v>
       </c>
       <c r="R23" t="n">
         <v>3624.078901139936</v>
@@ -6022,7 +6022,7 @@
         <v>3427.443324371337</v>
       </c>
       <c r="U23" t="n">
-        <v>3258.629430582658</v>
+        <v>3258.629430582659</v>
       </c>
       <c r="V23" t="n">
         <v>3012.430655379475</v>
@@ -6031,10 +6031,10 @@
         <v>2744.526112249749</v>
       </c>
       <c r="X23" t="n">
-        <v>2455.924466129056</v>
+        <v>2455.924466129057</v>
       </c>
       <c r="Y23" t="n">
-        <v>2150.649246293632</v>
+        <v>2150.649246293633</v>
       </c>
     </row>
     <row r="24">
@@ -6077,13 +6077,13 @@
         <v>1067.406998486752</v>
       </c>
       <c r="M24" t="n">
-        <v>1482.115255655348</v>
+        <v>1269.654040353139</v>
       </c>
       <c r="N24" t="n">
-        <v>1704.123819830831</v>
+        <v>1491.662604528622</v>
       </c>
       <c r="O24" t="n">
-        <v>2274.922184043095</v>
+        <v>1959.644043089557</v>
       </c>
       <c r="P24" t="n">
         <v>2400.7569851652</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>536.5925375866464</v>
+        <v>536.5925375866465</v>
       </c>
       <c r="C25" t="n">
-        <v>452.5204667991271</v>
+        <v>452.5204667991272</v>
       </c>
       <c r="D25" t="n">
         <v>387.2679395271791</v>
       </c>
       <c r="E25" t="n">
-        <v>324.2189580851736</v>
+        <v>324.2189580851737</v>
       </c>
       <c r="F25" t="n">
         <v>262.1931227276509</v>
@@ -6150,10 +6150,10 @@
         <v>143.4598475287446</v>
       </c>
       <c r="K25" t="n">
-        <v>336.4285058693216</v>
+        <v>336.4285058693217</v>
       </c>
       <c r="L25" t="n">
-        <v>615.6279340571168</v>
+        <v>615.6279340571169</v>
       </c>
       <c r="M25" t="n">
         <v>915.872314828258</v>
@@ -6168,7 +6168,7 @@
         <v>1702.026554971275</v>
       </c>
       <c r="Q25" t="n">
-        <v>1794.923320117454</v>
+        <v>1794.923320117455</v>
       </c>
       <c r="R25" t="n">
         <v>1752.762761881682</v>
@@ -6177,7 +6177,7 @@
         <v>1631.525036234404</v>
       </c>
       <c r="T25" t="n">
-        <v>1491.088105088913</v>
+        <v>1491.088105088912</v>
       </c>
       <c r="U25" t="n">
         <v>1286.804229999343</v>
@@ -6186,13 +6186,13 @@
         <v>1116.983853933844</v>
       </c>
       <c r="W25" t="n">
-        <v>912.4307960372706</v>
+        <v>912.4307960372707</v>
       </c>
       <c r="X25" t="n">
-        <v>769.3053572796409</v>
+        <v>769.305357279641</v>
       </c>
       <c r="Y25" t="n">
-        <v>633.3768902764984</v>
+        <v>633.3768902764986</v>
       </c>
     </row>
     <row r="26">
@@ -6208,19 +6208,19 @@
         <v>1681.077800484699</v>
       </c>
       <c r="D26" t="n">
-        <v>1389.239736158056</v>
+        <v>1389.239736158057</v>
       </c>
       <c r="E26" t="n">
         <v>1069.87911783992</v>
       </c>
       <c r="F26" t="n">
-        <v>725.3208473304203</v>
+        <v>725.3208473304209</v>
       </c>
       <c r="G26" t="n">
-        <v>374.8319164192395</v>
+        <v>374.8319164192401</v>
       </c>
       <c r="H26" t="n">
-        <v>124.7899071927577</v>
+        <v>124.7899071927584</v>
       </c>
       <c r="I26" t="n">
         <v>78.12539777594552</v>
@@ -6229,7 +6229,7 @@
         <v>281.0079066697663</v>
       </c>
       <c r="K26" t="n">
-        <v>705.8209998843208</v>
+        <v>705.8209998843214</v>
       </c>
       <c r="L26" t="n">
         <v>1285.115834102495</v>
@@ -6238,7 +6238,7 @@
         <v>1946.299500808057</v>
       </c>
       <c r="N26" t="n">
-        <v>2603.549812941343</v>
+        <v>2603.549812941344</v>
       </c>
       <c r="O26" t="n">
         <v>3178.985007433548</v>
@@ -6314,10 +6314,10 @@
         <v>1073.050818239898</v>
       </c>
       <c r="M27" t="n">
-        <v>1562.404630538919</v>
+        <v>1275.297860106286</v>
       </c>
       <c r="N27" t="n">
-        <v>1784.413194714402</v>
+        <v>1497.306424281769</v>
       </c>
       <c r="O27" t="n">
         <v>1965.287862842704</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>393.313237608305</v>
+        <v>569.1311042544897</v>
       </c>
       <c r="C28" t="n">
-        <v>290.8046889605061</v>
+        <v>466.6225556066909</v>
       </c>
       <c r="D28" t="n">
-        <v>236.0022055966532</v>
+        <v>403.6086892794386</v>
       </c>
       <c r="E28" t="n">
-        <v>236.0022055966532</v>
+        <v>403.6086892794386</v>
       </c>
       <c r="F28" t="n">
-        <v>236.0022055966532</v>
+        <v>323.1463760616364</v>
       </c>
       <c r="G28" t="n">
-        <v>133.8997967321301</v>
+        <v>221.0439671971133</v>
       </c>
       <c r="H28" t="n">
-        <v>133.8997967321301</v>
+        <v>133.89979673213</v>
       </c>
       <c r="I28" t="n">
         <v>78.12539777594552</v>
       </c>
       <c r="J28" t="n">
-        <v>131.0340753310313</v>
+        <v>131.0340753310314</v>
       </c>
       <c r="K28" t="n">
-        <v>305.9331417207483</v>
+        <v>305.9331417207485</v>
       </c>
       <c r="L28" t="n">
-        <v>567.0629779576834</v>
+        <v>567.0629779576839</v>
       </c>
       <c r="M28" t="n">
-        <v>849.2377667779645</v>
+        <v>849.2377667779649</v>
       </c>
       <c r="N28" t="n">
-        <v>1131.685754840399</v>
+        <v>1131.6857548404</v>
       </c>
       <c r="O28" t="n">
-        <v>1381.525942079703</v>
+        <v>1381.525942079704</v>
       </c>
       <c r="P28" t="n">
         <v>1581.183231068401</v>
@@ -6408,28 +6408,28 @@
         <v>1656.010404263721</v>
       </c>
       <c r="R28" t="n">
-        <v>1595.413368167669</v>
+        <v>1656.010404263721</v>
       </c>
       <c r="S28" t="n">
-        <v>1455.739164660111</v>
+        <v>1516.336200756163</v>
       </c>
       <c r="T28" t="n">
-        <v>1296.86575565434</v>
+        <v>1357.462791750392</v>
       </c>
       <c r="U28" t="n">
-        <v>1074.14540270449</v>
+        <v>1134.742438800543</v>
       </c>
       <c r="V28" t="n">
-        <v>885.8885487787115</v>
+        <v>946.4855848747643</v>
       </c>
       <c r="W28" t="n">
-        <v>662.8990130218589</v>
+        <v>723.4960491179118</v>
       </c>
       <c r="X28" t="n">
-        <v>662.8990130218589</v>
+        <v>723.4960491179118</v>
       </c>
       <c r="Y28" t="n">
-        <v>508.5340681584368</v>
+        <v>569.1311042544897</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1069.87911783992</v>
       </c>
       <c r="F29" t="n">
-        <v>725.3208473304203</v>
+        <v>725.3208473304204</v>
       </c>
       <c r="G29" t="n">
-        <v>374.8319164192394</v>
+        <v>374.8319164192398</v>
       </c>
       <c r="H29" t="n">
-        <v>124.7899071927577</v>
+        <v>124.7899071927581</v>
       </c>
       <c r="I29" t="n">
         <v>78.12539777594552</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>615.5173034055659</v>
+        <v>451.2217660922199</v>
       </c>
       <c r="C31" t="n">
-        <v>513.0087547577671</v>
+        <v>451.2217660922199</v>
       </c>
       <c r="D31" t="n">
-        <v>429.3197496255394</v>
+        <v>367.5327609599923</v>
       </c>
       <c r="E31" t="n">
-        <v>347.8342903232543</v>
+        <v>286.0473016577072</v>
       </c>
       <c r="F31" t="n">
-        <v>267.371977105452</v>
+        <v>205.584988439905</v>
       </c>
       <c r="G31" t="n">
-        <v>165.2695682409289</v>
+        <v>165.2695682409288</v>
       </c>
       <c r="H31" t="n">
         <v>78.12539777594552</v>
@@ -6624,16 +6624,16 @@
         <v>131.0340753310314</v>
       </c>
       <c r="K31" t="n">
-        <v>305.9331417207484</v>
+        <v>305.9331417207485</v>
       </c>
       <c r="L31" t="n">
-        <v>567.0629779576836</v>
+        <v>567.0629779576839</v>
       </c>
       <c r="M31" t="n">
-        <v>849.2377667779647</v>
+        <v>849.2377667779649</v>
       </c>
       <c r="N31" t="n">
-        <v>1131.685754840399</v>
+        <v>1131.6857548404</v>
       </c>
       <c r="O31" t="n">
         <v>1381.525942079704</v>
@@ -6648,25 +6648,25 @@
         <v>1656.010404263721</v>
       </c>
       <c r="S31" t="n">
-        <v>1656.010404263721</v>
+        <v>1516.336200756163</v>
       </c>
       <c r="T31" t="n">
-        <v>1497.13699525795</v>
+        <v>1516.336200756163</v>
       </c>
       <c r="U31" t="n">
-        <v>1274.416642308101</v>
+        <v>1293.615847806314</v>
       </c>
       <c r="V31" t="n">
-        <v>1086.159788382322</v>
+        <v>1105.358993880535</v>
       </c>
       <c r="W31" t="n">
-        <v>863.1702526254692</v>
+        <v>882.3694581236828</v>
       </c>
       <c r="X31" t="n">
-        <v>863.1702526254692</v>
+        <v>720.8075415057735</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.7381339556975</v>
+        <v>566.4425966423515</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1967.523319652278</v>
+        <v>1967.523319652279</v>
       </c>
       <c r="C32" t="n">
-        <v>1667.190612442096</v>
+        <v>1667.190612442097</v>
       </c>
       <c r="D32" t="n">
-        <v>1377.554723565575</v>
+        <v>1377.554723565576</v>
       </c>
       <c r="E32" t="n">
         <v>1060.396280697561</v>
       </c>
       <c r="F32" t="n">
-        <v>718.0401856381825</v>
+        <v>718.0401856381832</v>
       </c>
       <c r="G32" t="n">
-        <v>369.7534301771231</v>
+        <v>369.7534301771238</v>
       </c>
       <c r="H32" t="n">
-        <v>121.9135964007628</v>
+        <v>121.9135964007629</v>
       </c>
       <c r="I32" t="n">
-        <v>77.45126243407162</v>
+        <v>77.45126243407164</v>
       </c>
       <c r="J32" t="n">
         <v>280.3337713278921</v>
       </c>
       <c r="K32" t="n">
-        <v>705.146864542447</v>
+        <v>672.1142327906275</v>
       </c>
       <c r="L32" t="n">
-        <v>1284.441698760621</v>
+        <v>1251.409067008801</v>
       </c>
       <c r="M32" t="n">
-        <v>1912.592733714362</v>
+        <v>1912.592733714363</v>
       </c>
       <c r="N32" t="n">
-        <v>2569.843045847649</v>
+        <v>2569.84304584765</v>
       </c>
       <c r="O32" t="n">
         <v>3145.278240339854</v>
       </c>
       <c r="P32" t="n">
-        <v>3598.724482767673</v>
+        <v>3598.724482767674</v>
       </c>
       <c r="Q32" t="n">
         <v>3862.021966836737</v>
       </c>
       <c r="R32" t="n">
-        <v>3872.563121703581</v>
+        <v>3872.563121703582</v>
       </c>
       <c r="S32" t="n">
-        <v>3788.879491571554</v>
+        <v>3788.879491571555</v>
       </c>
       <c r="T32" t="n">
         <v>3643.458940114667</v>
       </c>
       <c r="U32" t="n">
-        <v>3458.410743915829</v>
+        <v>3458.41074391583</v>
       </c>
       <c r="V32" t="n">
-        <v>3195.977666302488</v>
+        <v>3195.977666302489</v>
       </c>
       <c r="W32" t="n">
-        <v>2911.838820762603</v>
+        <v>2911.838820762604</v>
       </c>
       <c r="X32" t="n">
-        <v>2607.002872231753</v>
+        <v>2607.002872231754</v>
       </c>
       <c r="Y32" t="n">
-        <v>2285.49334998617</v>
+        <v>2285.493349986171</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>663.3550696370223</v>
       </c>
       <c r="E33" t="n">
-        <v>504.1176146315668</v>
+        <v>504.1176146315669</v>
       </c>
       <c r="F33" t="n">
         <v>357.5830566584518</v>
@@ -6776,28 +6776,28 @@
         <v>120.2020396277996</v>
       </c>
       <c r="I33" t="n">
-        <v>77.45126243407162</v>
+        <v>77.45126243407164</v>
       </c>
       <c r="J33" t="n">
-        <v>204.5933151638998</v>
+        <v>101.7763895125711</v>
       </c>
       <c r="K33" t="n">
-        <v>548.5201772821954</v>
+        <v>445.7032516308667</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.376682898025</v>
+        <v>969.5597572466961</v>
       </c>
       <c r="M33" t="n">
-        <v>1274.623724764412</v>
+        <v>1171.806799113084</v>
       </c>
       <c r="N33" t="n">
-        <v>1496.632288939895</v>
+        <v>1393.815363288566</v>
       </c>
       <c r="O33" t="n">
-        <v>2067.430653152158</v>
+        <v>1964.61372750083</v>
       </c>
       <c r="P33" t="n">
-        <v>2508.543595227802</v>
+        <v>2405.726669576473</v>
       </c>
       <c r="Q33" t="n">
         <v>2647.901220136074</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>277.6578690461508</v>
+        <v>268.163581968927</v>
       </c>
       <c r="C34" t="n">
-        <v>177.3514958484733</v>
+        <v>262.2934908633354</v>
       </c>
       <c r="D34" t="n">
-        <v>177.3514958484733</v>
+        <v>262.2934908633354</v>
       </c>
       <c r="E34" t="n">
-        <v>177.3514958484733</v>
+        <v>262.2934908633354</v>
       </c>
       <c r="F34" t="n">
-        <v>177.3514958484733</v>
+        <v>262.2934908633354</v>
       </c>
       <c r="G34" t="n">
-        <v>77.45126243407162</v>
+        <v>162.3932574489336</v>
       </c>
       <c r="H34" t="n">
-        <v>77.45126243407162</v>
+        <v>77.45126243407164</v>
       </c>
       <c r="I34" t="n">
-        <v>77.45126243407162</v>
+        <v>77.45126243407164</v>
       </c>
       <c r="J34" t="n">
         <v>132.5182921478215</v>
@@ -6864,10 +6864,10 @@
         <v>309.5757106962025</v>
       </c>
       <c r="L34" t="n">
-        <v>572.8638990918017</v>
+        <v>572.8638990918016</v>
       </c>
       <c r="M34" t="n">
-        <v>857.1970400707468</v>
+        <v>857.1970400707467</v>
       </c>
       <c r="N34" t="n">
         <v>1141.803380291845</v>
@@ -6891,19 +6891,19 @@
         <v>1320.064963932143</v>
       </c>
       <c r="U34" t="n">
-        <v>1109.041073509638</v>
+        <v>1099.546786432415</v>
       </c>
       <c r="V34" t="n">
-        <v>922.9863950339808</v>
+        <v>913.4921079567571</v>
       </c>
       <c r="W34" t="n">
-        <v>702.1990347272496</v>
+        <v>692.7047476500259</v>
       </c>
       <c r="X34" t="n">
-        <v>542.8392935594617</v>
+        <v>533.345006482238</v>
       </c>
       <c r="Y34" t="n">
-        <v>390.676524146161</v>
+        <v>381.1822370689373</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1848.913518369898</v>
+        <v>1848.913518369899</v>
       </c>
       <c r="C35" t="n">
-        <v>1564.815113569874</v>
+        <v>1564.815113569875</v>
       </c>
       <c r="D35" t="n">
-        <v>1291.413527103511</v>
+        <v>1291.413527103512</v>
       </c>
       <c r="E35" t="n">
-        <v>990.4893866456548</v>
+        <v>990.4893866456553</v>
       </c>
       <c r="F35" t="n">
-        <v>664.3675939964348</v>
+        <v>664.3675939964353</v>
       </c>
       <c r="G35" t="n">
-        <v>332.3151409455336</v>
+        <v>332.315140945534</v>
       </c>
       <c r="H35" t="n">
-        <v>100.7096095793318</v>
+        <v>100.7096095793317</v>
       </c>
       <c r="I35" t="n">
-        <v>72.48157802279871</v>
+        <v>72.4815780227987</v>
       </c>
       <c r="J35" t="n">
         <v>275.3640869166192</v>
       </c>
       <c r="K35" t="n">
-        <v>700.1771801311742</v>
+        <v>700.1771801311741</v>
       </c>
       <c r="L35" t="n">
         <v>1279.472014349348</v>
       </c>
       <c r="M35" t="n">
-        <v>1664.108513150717</v>
+        <v>1674.649668017561</v>
       </c>
       <c r="N35" t="n">
-        <v>2321.358825284004</v>
+        <v>2331.899980150847</v>
       </c>
       <c r="O35" t="n">
-        <v>2896.794019776208</v>
+        <v>2907.335174643052</v>
       </c>
       <c r="P35" t="n">
-        <v>3350.240262204028</v>
+        <v>3360.781417070872</v>
       </c>
       <c r="Q35" t="n">
-        <v>3613.537746273091</v>
+        <v>3624.078901139935</v>
       </c>
       <c r="R35" t="n">
-        <v>3624.078901139936</v>
+        <v>3624.078901139935</v>
       </c>
       <c r="S35" t="n">
-        <v>3556.629573418067</v>
+        <v>3556.629573418066</v>
       </c>
       <c r="T35" t="n">
         <v>3427.443324371337</v>
       </c>
       <c r="U35" t="n">
-        <v>3258.629430582658</v>
+        <v>3258.629430582659</v>
       </c>
       <c r="V35" t="n">
-        <v>3012.430655379475</v>
+        <v>3012.430655379476</v>
       </c>
       <c r="W35" t="n">
-        <v>2744.526112249749</v>
+        <v>2744.52611224975</v>
       </c>
       <c r="X35" t="n">
-        <v>2455.924466129056</v>
+        <v>2455.924466129057</v>
       </c>
       <c r="Y35" t="n">
-        <v>2150.649246293632</v>
+        <v>2150.649246293633</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>115.2323552165267</v>
       </c>
       <c r="I36" t="n">
-        <v>72.48157802279871</v>
+        <v>72.4815780227987</v>
       </c>
       <c r="J36" t="n">
-        <v>199.6236307526269</v>
+        <v>199.6236307526268</v>
       </c>
       <c r="K36" t="n">
-        <v>543.5504928709224</v>
+        <v>543.5504928709223</v>
       </c>
       <c r="L36" t="n">
-        <v>1067.406998486752</v>
+        <v>1067.406998486751</v>
       </c>
       <c r="M36" t="n">
-        <v>1556.760810785772</v>
+        <v>1269.654040353139</v>
       </c>
       <c r="N36" t="n">
-        <v>1778.769374961255</v>
+        <v>1491.662604528622</v>
       </c>
       <c r="O36" t="n">
         <v>1959.644043089557</v>
       </c>
       <c r="P36" t="n">
-        <v>2400.7569851652</v>
+        <v>2400.756985165201</v>
       </c>
       <c r="Q36" t="n">
         <v>2642.931535724801</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>536.5925375866466</v>
+        <v>536.5925375866464</v>
       </c>
       <c r="C37" t="n">
-        <v>452.5204667991273</v>
+        <v>452.5204667991271</v>
       </c>
       <c r="D37" t="n">
-        <v>387.2679395271792</v>
+        <v>387.2679395271791</v>
       </c>
       <c r="E37" t="n">
-        <v>324.2189580851738</v>
+        <v>324.2189580851736</v>
       </c>
       <c r="F37" t="n">
-        <v>262.193122727651</v>
+        <v>262.1931227276509</v>
       </c>
       <c r="G37" t="n">
-        <v>178.5271917234073</v>
+        <v>178.5271917234074</v>
       </c>
       <c r="H37" t="n">
         <v>109.8194991187036</v>
       </c>
       <c r="I37" t="n">
-        <v>72.48157802279871</v>
+        <v>72.4815780227987</v>
       </c>
       <c r="J37" t="n">
         <v>143.4598475287446</v>
@@ -7101,10 +7101,10 @@
         <v>336.4285058693216</v>
       </c>
       <c r="L37" t="n">
-        <v>615.6279340571168</v>
+        <v>615.627934057117</v>
       </c>
       <c r="M37" t="n">
-        <v>915.872314828258</v>
+        <v>915.8723148282581</v>
       </c>
       <c r="N37" t="n">
         <v>1216.389894841553</v>
@@ -7119,13 +7119,13 @@
         <v>1794.923320117455</v>
       </c>
       <c r="R37" t="n">
-        <v>1752.762761881683</v>
+        <v>1752.762761881682</v>
       </c>
       <c r="S37" t="n">
         <v>1631.525036234404</v>
       </c>
       <c r="T37" t="n">
-        <v>1491.088105088913</v>
+        <v>1491.088105088912</v>
       </c>
       <c r="U37" t="n">
         <v>1286.804229999343</v>
@@ -7134,13 +7134,13 @@
         <v>1116.983853933844</v>
       </c>
       <c r="W37" t="n">
-        <v>912.4307960372709</v>
+        <v>912.4307960372706</v>
       </c>
       <c r="X37" t="n">
-        <v>769.3053572796412</v>
+        <v>769.3053572796409</v>
       </c>
       <c r="Y37" t="n">
-        <v>633.3768902764987</v>
+        <v>633.3768902764984</v>
       </c>
     </row>
     <row r="38">
@@ -7159,19 +7159,19 @@
         <v>1291.413527103511</v>
       </c>
       <c r="E38" t="n">
-        <v>990.4893866456548</v>
+        <v>990.4893866456546</v>
       </c>
       <c r="F38" t="n">
-        <v>664.3675939964349</v>
+        <v>664.3675939964346</v>
       </c>
       <c r="G38" t="n">
-        <v>332.3151409455338</v>
+        <v>332.3151409455334</v>
       </c>
       <c r="H38" t="n">
         <v>100.7096095793317</v>
       </c>
       <c r="I38" t="n">
-        <v>72.48157802279871</v>
+        <v>72.4815780227987</v>
       </c>
       <c r="J38" t="n">
         <v>275.3640869166192</v>
@@ -7192,13 +7192,13 @@
         <v>2896.794019776208</v>
       </c>
       <c r="P38" t="n">
-        <v>3350.240262204028</v>
+        <v>3350.240262204027</v>
       </c>
       <c r="Q38" t="n">
         <v>3613.537746273091</v>
       </c>
       <c r="R38" t="n">
-        <v>3624.078901139936</v>
+        <v>3624.078901139935</v>
       </c>
       <c r="S38" t="n">
         <v>3556.629573418067</v>
@@ -7213,7 +7213,7 @@
         <v>3012.430655379475</v>
       </c>
       <c r="W38" t="n">
-        <v>2744.526112249749</v>
+        <v>2744.526112249748</v>
       </c>
       <c r="X38" t="n">
         <v>2455.924466129056</v>
@@ -7250,25 +7250,25 @@
         <v>115.2323552165267</v>
       </c>
       <c r="I39" t="n">
-        <v>72.48157802279871</v>
+        <v>72.4815780227987</v>
       </c>
       <c r="J39" t="n">
-        <v>199.6236307526269</v>
+        <v>96.80670510129795</v>
       </c>
       <c r="K39" t="n">
-        <v>543.5504928709224</v>
+        <v>440.7335672195935</v>
       </c>
       <c r="L39" t="n">
-        <v>1067.406998486752</v>
+        <v>964.5900728354229</v>
       </c>
       <c r="M39" t="n">
-        <v>1269.654040353139</v>
+        <v>1166.83711470181</v>
       </c>
       <c r="N39" t="n">
-        <v>1704.123819830831</v>
+        <v>1388.845678877293</v>
       </c>
       <c r="O39" t="n">
-        <v>2274.922184043095</v>
+        <v>1959.644043089557</v>
       </c>
       <c r="P39" t="n">
         <v>2400.7569851652</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>536.5925375866465</v>
+        <v>536.5925375866464</v>
       </c>
       <c r="C40" t="n">
-        <v>452.5204667991272</v>
+        <v>452.5204667991271</v>
       </c>
       <c r="D40" t="n">
-        <v>387.2679395271791</v>
+        <v>387.267939527179</v>
       </c>
       <c r="E40" t="n">
-        <v>324.2189580851737</v>
+        <v>324.2189580851735</v>
       </c>
       <c r="F40" t="n">
-        <v>262.1931227276509</v>
+        <v>262.1931227276508</v>
       </c>
       <c r="G40" t="n">
-        <v>178.5271917234074</v>
+        <v>178.5271917234073</v>
       </c>
       <c r="H40" t="n">
         <v>109.8194991187036</v>
       </c>
       <c r="I40" t="n">
-        <v>72.48157802279871</v>
+        <v>72.4815780227987</v>
       </c>
       <c r="J40" t="n">
         <v>143.4598475287446</v>
@@ -7338,7 +7338,7 @@
         <v>336.4285058693216</v>
       </c>
       <c r="L40" t="n">
-        <v>615.6279340571169</v>
+        <v>615.6279340571168</v>
       </c>
       <c r="M40" t="n">
         <v>915.872314828258</v>
@@ -7353,7 +7353,7 @@
         <v>1702.026554971275</v>
       </c>
       <c r="Q40" t="n">
-        <v>1794.923320117455</v>
+        <v>1794.923320117454</v>
       </c>
       <c r="R40" t="n">
         <v>1752.762761881682</v>
@@ -7368,16 +7368,16 @@
         <v>1286.804229999343</v>
       </c>
       <c r="V40" t="n">
-        <v>1116.983853933844</v>
+        <v>1116.983853933843</v>
       </c>
       <c r="W40" t="n">
-        <v>912.4307960372707</v>
+        <v>912.4307960372704</v>
       </c>
       <c r="X40" t="n">
-        <v>769.305357279641</v>
+        <v>769.3053572796407</v>
       </c>
       <c r="Y40" t="n">
-        <v>633.3768902764986</v>
+        <v>633.3768902764984</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1826.701865564686</v>
+        <v>1820.771205163005</v>
       </c>
       <c r="C41" t="n">
-        <v>1476.175826484553</v>
+        <v>1470.245166082872</v>
       </c>
       <c r="D41" t="n">
-        <v>1136.346605738083</v>
+        <v>1130.415945336402</v>
       </c>
       <c r="E41" t="n">
-        <v>768.994831000118</v>
+        <v>763.0641705984369</v>
       </c>
       <c r="F41" t="n">
-        <v>768.994831000118</v>
+        <v>370.5147436691089</v>
       </c>
       <c r="G41" t="n">
-        <v>370.5147436691088</v>
+        <v>370.5147436691089</v>
       </c>
       <c r="H41" t="n">
-        <v>72.48157802279871</v>
+        <v>72.4815780227987</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48157802279871</v>
+        <v>72.4815780227987</v>
       </c>
       <c r="J41" t="n">
-        <v>209.0087597657323</v>
+        <v>107.9584378962662</v>
       </c>
       <c r="K41" t="n">
-        <v>633.8218529802873</v>
+        <v>532.7715311108211</v>
       </c>
       <c r="L41" t="n">
-        <v>1213.116687198461</v>
+        <v>1112.066365328995</v>
       </c>
       <c r="M41" t="n">
-        <v>1874.300353904023</v>
+        <v>1773.250032034557</v>
       </c>
       <c r="N41" t="n">
-        <v>2531.550666037309</v>
+        <v>2430.500344167843</v>
       </c>
       <c r="O41" t="n">
-        <v>3106.985860529514</v>
+        <v>3005.935538660048</v>
       </c>
       <c r="P41" t="n">
-        <v>3560.432102957333</v>
+        <v>3459.381781087868</v>
       </c>
       <c r="Q41" t="n">
         <v>3613.537746273091</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.078901139936</v>
+        <v>3624.078901139935</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.078901139936</v>
+        <v>3624.078901139935</v>
       </c>
       <c r="T41" t="n">
-        <v>3448.768196845972</v>
+        <v>3428.465017813098</v>
       </c>
       <c r="U41" t="n">
-        <v>3213.526668777185</v>
+        <v>3193.223489744311</v>
       </c>
       <c r="V41" t="n">
-        <v>2900.900259293895</v>
+        <v>2880.59708026102</v>
       </c>
       <c r="W41" t="n">
-        <v>2566.56808188406</v>
+        <v>2546.264902851186</v>
       </c>
       <c r="X41" t="n">
-        <v>2566.56808188406</v>
+        <v>2191.235622450385</v>
       </c>
       <c r="Y41" t="n">
-        <v>2194.865227768528</v>
+        <v>2188.934567366847</v>
       </c>
     </row>
     <row r="42">
@@ -7487,19 +7487,19 @@
         <v>115.2323552165267</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48157802279871</v>
+        <v>72.4815780227987</v>
       </c>
       <c r="J42" t="n">
-        <v>199.6236307526269</v>
+        <v>96.80670510129795</v>
       </c>
       <c r="K42" t="n">
-        <v>281.7299082284696</v>
+        <v>440.7335672195935</v>
       </c>
       <c r="L42" t="n">
-        <v>805.586413844299</v>
+        <v>964.5900728354229</v>
       </c>
       <c r="M42" t="n">
-        <v>1007.833455710687</v>
+        <v>1166.83711470181</v>
       </c>
       <c r="N42" t="n">
         <v>1388.845678877293</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>126.0607609664579</v>
+        <v>522.8322506698867</v>
       </c>
       <c r="C43" t="n">
-        <v>126.0607609664579</v>
+        <v>522.8322506698867</v>
       </c>
       <c r="D43" t="n">
-        <v>126.0607609664579</v>
+        <v>391.1520891178305</v>
       </c>
       <c r="E43" t="n">
-        <v>126.0607609664579</v>
+        <v>261.675473395717</v>
       </c>
       <c r="F43" t="n">
-        <v>72.48157802279871</v>
+        <v>176.2471333988117</v>
       </c>
       <c r="G43" t="n">
-        <v>72.48157802279871</v>
+        <v>176.2471333988117</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48157802279871</v>
+        <v>176.2471333988117</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48157802279871</v>
+        <v>72.4815780227987</v>
       </c>
       <c r="J43" t="n">
-        <v>78.35412317081074</v>
+        <v>78.35412317081068</v>
       </c>
       <c r="K43" t="n">
-        <v>206.2170571534539</v>
+        <v>206.2170571534538</v>
       </c>
       <c r="L43" t="n">
-        <v>420.3107609833153</v>
+        <v>420.3107609833152</v>
       </c>
       <c r="M43" t="n">
-        <v>655.4494173965224</v>
+        <v>655.4494173965223</v>
       </c>
       <c r="N43" t="n">
-        <v>890.8612730518831</v>
+        <v>890.861273051883</v>
       </c>
       <c r="O43" t="n">
         <v>1093.665327884114</v>
@@ -7599,22 +7599,22 @@
         <v>1274.077525253983</v>
       </c>
       <c r="T43" t="n">
-        <v>1067.212959828384</v>
+        <v>1274.077525253983</v>
       </c>
       <c r="U43" t="n">
-        <v>796.5014504587064</v>
+        <v>1003.366015884305</v>
       </c>
       <c r="V43" t="n">
-        <v>560.253440113099</v>
+        <v>1003.366015884305</v>
       </c>
       <c r="W43" t="n">
-        <v>289.272747936418</v>
+        <v>732.3853237076244</v>
       </c>
       <c r="X43" t="n">
-        <v>289.272747936418</v>
+        <v>522.8322506698867</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.272747936418</v>
+        <v>522.8322506698867</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1317.492444129035</v>
+        <v>2219.251292494014</v>
       </c>
       <c r="C44" t="n">
-        <v>966.9664050489026</v>
+        <v>1868.725253413882</v>
       </c>
       <c r="D44" t="n">
-        <v>832.3827796900912</v>
+        <v>1528.896032667411</v>
       </c>
       <c r="E44" t="n">
-        <v>465.0310049521266</v>
+        <v>1161.544257929446</v>
       </c>
       <c r="F44" t="n">
-        <v>72.48157802279871</v>
+        <v>768.9948310001182</v>
       </c>
       <c r="G44" t="n">
-        <v>72.48157802279871</v>
+        <v>370.5147436691089</v>
       </c>
       <c r="H44" t="n">
-        <v>72.48157802279871</v>
+        <v>72.4815780227987</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48157802279871</v>
+        <v>72.4815780227987</v>
       </c>
       <c r="J44" t="n">
-        <v>107.9584378962662</v>
+        <v>209.0087597657314</v>
       </c>
       <c r="K44" t="n">
-        <v>532.7715311108211</v>
+        <v>633.8218529802864</v>
       </c>
       <c r="L44" t="n">
-        <v>1112.066365328995</v>
+        <v>1213.11668719846</v>
       </c>
       <c r="M44" t="n">
-        <v>1773.250032034557</v>
+        <v>1874.300353904022</v>
       </c>
       <c r="N44" t="n">
-        <v>2430.500344167843</v>
+        <v>2531.550666037308</v>
       </c>
       <c r="O44" t="n">
-        <v>3005.935538660048</v>
+        <v>3106.985860529514</v>
       </c>
       <c r="P44" t="n">
-        <v>3459.381781087868</v>
+        <v>3560.432102957333</v>
       </c>
       <c r="Q44" t="n">
-        <v>3624.078901139936</v>
+        <v>3613.537746273091</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.078901139936</v>
+        <v>3624.078901139935</v>
       </c>
       <c r="S44" t="n">
-        <v>3490.201939137959</v>
+        <v>3624.078901139935</v>
       </c>
       <c r="T44" t="n">
-        <v>3294.588055811122</v>
+        <v>3624.078901139935</v>
       </c>
       <c r="U44" t="n">
-        <v>3059.346527742335</v>
+        <v>3624.078901139935</v>
       </c>
       <c r="V44" t="n">
-        <v>2746.720118259044</v>
+        <v>3624.078901139935</v>
       </c>
       <c r="W44" t="n">
-        <v>2412.387940849209</v>
+        <v>3314.146789214189</v>
       </c>
       <c r="X44" t="n">
-        <v>2057.358660448409</v>
+        <v>2959.117508813389</v>
       </c>
       <c r="Y44" t="n">
-        <v>1685.655806332877</v>
+        <v>2587.414654697856</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>115.2323552165267</v>
       </c>
       <c r="I45" t="n">
-        <v>72.48157802279871</v>
+        <v>72.4815780227987</v>
       </c>
       <c r="J45" t="n">
-        <v>199.6236307526269</v>
+        <v>199.6236307526268</v>
       </c>
       <c r="K45" t="n">
-        <v>395.5232011694288</v>
+        <v>543.5504928709224</v>
       </c>
       <c r="L45" t="n">
-        <v>552.2477649348336</v>
+        <v>1067.406998486752</v>
       </c>
       <c r="M45" t="n">
-        <v>1215.542819913721</v>
+        <v>1269.654040353139</v>
       </c>
       <c r="N45" t="n">
-        <v>1912.100334689322</v>
+        <v>1491.662604528622</v>
       </c>
       <c r="O45" t="n">
-        <v>2482.898698901585</v>
+        <v>1959.644043089557</v>
       </c>
       <c r="P45" t="n">
-        <v>2608.733500023691</v>
+        <v>2400.7569851652</v>
       </c>
       <c r="Q45" t="n">
         <v>2642.931535724801</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>268.5083518121814</v>
+        <v>612.5915300022266</v>
       </c>
       <c r="C46" t="n">
-        <v>268.5083518121814</v>
+        <v>462.0918249345992</v>
       </c>
       <c r="D46" t="n">
-        <v>176.2471333988116</v>
+        <v>330.4116633825431</v>
       </c>
       <c r="E46" t="n">
-        <v>176.2471333988116</v>
+        <v>200.9350476604295</v>
       </c>
       <c r="F46" t="n">
-        <v>176.2471333988116</v>
+        <v>72.4815780227987</v>
       </c>
       <c r="G46" t="n">
-        <v>176.2471333988116</v>
+        <v>72.4815780227987</v>
       </c>
       <c r="H46" t="n">
-        <v>176.2471333988116</v>
+        <v>72.4815780227987</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48157802279871</v>
+        <v>72.4815780227987</v>
       </c>
       <c r="J46" t="n">
-        <v>78.35412317081074</v>
+        <v>78.35412317081068</v>
       </c>
       <c r="K46" t="n">
-        <v>206.2170571534539</v>
+        <v>206.2170571534538</v>
       </c>
       <c r="L46" t="n">
-        <v>420.3107609833153</v>
+        <v>420.3107609833152</v>
       </c>
       <c r="M46" t="n">
-        <v>655.4494173965224</v>
+        <v>655.4494173965223</v>
       </c>
       <c r="N46" t="n">
-        <v>890.8612730518831</v>
+        <v>890.861273051883</v>
       </c>
       <c r="O46" t="n">
         <v>1093.665327884114</v>
@@ -7830,28 +7830,28 @@
         <v>1274.077525253983</v>
       </c>
       <c r="R46" t="n">
-        <v>1165.489332738103</v>
+        <v>1274.077525253983</v>
       </c>
       <c r="S46" t="n">
-        <v>977.8239728107169</v>
+        <v>1274.077525253983</v>
       </c>
       <c r="T46" t="n">
-        <v>977.8239728107169</v>
+        <v>1067.212959828384</v>
       </c>
       <c r="U46" t="n">
-        <v>707.1124634410392</v>
+        <v>796.5014504587059</v>
       </c>
       <c r="V46" t="n">
-        <v>470.8644530954319</v>
+        <v>612.5915300022266</v>
       </c>
       <c r="W46" t="n">
-        <v>470.8644530954319</v>
+        <v>612.5915300022266</v>
       </c>
       <c r="X46" t="n">
-        <v>470.8644530954319</v>
+        <v>612.5915300022266</v>
       </c>
       <c r="Y46" t="n">
-        <v>268.5083518121814</v>
+        <v>612.5915300022266</v>
       </c>
     </row>
   </sheetData>
@@ -7984,10 +7984,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>242.3646406817305</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>236.944458939016</v>
       </c>
       <c r="N2" t="n">
         <v>236.2891093383024</v>
@@ -8218,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>242.3646406817305</v>
       </c>
       <c r="M5" t="n">
-        <v>236.944458939016</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
         <v>236.2891093383024</v>
@@ -8233,7 +8233,7 @@
         <v>236.9742571633982</v>
       </c>
       <c r="P5" t="n">
-        <v>238.109041496981</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>144.4396646861023</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
@@ -8312,7 +8312,7 @@
         <v>149.4722901861559</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>140.5726331260735</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M8" t="n">
-        <v>245.0306783175538</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N8" t="n">
-        <v>244.715801111726</v>
+        <v>244.097508686872</v>
       </c>
       <c r="O8" t="n">
-        <v>245.4009489368218</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>246.5357332704046</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,13 +8537,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>146.6444495984684</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>157.8989819595795</v>
@@ -8695,10 +8695,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>138.3206409098516</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>170.1729598522338</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8774,16 +8774,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>195.142120374301</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>290.0068388208416</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>384.2078067500876</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>290.0068388208416</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>290.0068388208416</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>106.2218072799616</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>180.8205910308646</v>
+        <v>170.1729598522338</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>55.06878869435172</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>52.10772751659644</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>290.0068388208416</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9640,13 +9640,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>44.80483893056601</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>180.8205910308646</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>55.06878869435172</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9725,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>214.6072881840495</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>290.0068388208416</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9962,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>290.006838820842</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10351,13 +10351,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>290.7791178723571</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>416.1472387940239</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>22.23555488452133</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>106.2218072799621</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>170.1729598522338</v>
+        <v>180.8205910308637</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>55.06878869435175</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10673,13 +10673,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>290.0068388208416</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>290.0068388208427</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>101.4596076221466</v>
+        <v>101.4596076221462</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>22.23555488452107</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,13 +10913,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>214.6072881840495</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>102.07103219138</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>102.0710321913791</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>22.23555488452107</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>160.6097565566908</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>102.071032191379</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11317,10 +11317,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>112.7186633700103</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.06878869435172</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>114.9427201423831</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>290.0068388208416</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>114.0686222446303</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>28.59765655069108</v>
+        <v>20.4683874169256</v>
       </c>
       <c r="E28" t="n">
-        <v>80.67060470926226</v>
+        <v>80.67060470926218</v>
       </c>
       <c r="F28" t="n">
-        <v>79.65769008562434</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>86.27272876033356</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>59.99106573509117</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>101.4834631613208</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>61.16911877889146</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21665496662266</v>
+        <v>55.21665496662261</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>59.99106573509121</v>
+        <v>59.99106573509117</v>
       </c>
       <c r="S31" t="n">
-        <v>138.2774614724824</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>157.2846749157132</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>159.9462974517302</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.71349793171393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>93.49191927116497</v>
       </c>
       <c r="D34" t="n">
-        <v>80.6719613852852</v>
+        <v>80.67196138528523</v>
       </c>
       <c r="E34" t="n">
-        <v>78.49045101364202</v>
+        <v>78.49045101364204</v>
       </c>
       <c r="F34" t="n">
-        <v>77.47753639000409</v>
+        <v>77.47753639000412</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>84.09257506471332</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>53.03650127100245</v>
+        <v>53.03650127100248</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>9.399344206451133</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>388.6239326600346</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>394.4952864576991</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>93.70910917827464</v>
+        <v>93.70910917827467</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.538192381957</v>
+        <v>132.5381923819571</v>
       </c>
       <c r="T41" t="n">
-        <v>20.10014724254529</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>351.4789875967922</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>365.7077810416739</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>161.5798671002605</v>
       </c>
       <c r="C43" t="n">
-        <v>148.994708016951</v>
+        <v>148.9947080169511</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3633599365355</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>128.1818495648924</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>74.12554382703183</v>
+        <v>42.59487834431822</v>
       </c>
       <c r="G43" t="n">
-        <v>148.592629631508</v>
+        <v>148.5926296315081</v>
       </c>
       <c r="H43" t="n">
-        <v>133.7839736159636</v>
+        <v>133.7839736159637</v>
       </c>
       <c r="I43" t="n">
-        <v>102.7278998222528</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>107.5023105907214</v>
       </c>
       <c r="S43" t="n">
-        <v>185.7887063281125</v>
+        <v>185.7887063281126</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>204.7959197713434</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>233.8855302421512</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>207.4575423073603</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>200.332540270418</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>203.1931394337828</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>394.4952864576991</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>295.052833989847</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>93.70910917827464</v>
+        <v>93.70910917827467</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>132.5381923819571</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>193.6577444935689</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>232.889112788099</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>309.5001453884581</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>24.15606482924761</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>161.5798671002605</v>
       </c>
       <c r="C46" t="n">
-        <v>148.994708016951</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>39.02475370729948</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>128.1818495648924</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>127.1689349412544</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>148.592629631508</v>
+        <v>148.5926296315081</v>
       </c>
       <c r="H46" t="n">
-        <v>133.7839736159636</v>
+        <v>133.7839736159637</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>102.7278998222529</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>107.5023105907214</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>185.7887063281126</v>
       </c>
       <c r="T46" t="n">
-        <v>204.7959197713434</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>51.81470899023671</v>
       </c>
       <c r="W46" t="n">
         <v>268.2708852549142</v>
       </c>
       <c r="X46" t="n">
-        <v>207.4575423073603</v>
+        <v>207.4575423073604</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>200.332540270418</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>742950.7252536439</v>
+        <v>742950.7252536442</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>742950.7252536441</v>
+        <v>742950.7252536439</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>743151.8890141862</v>
+        <v>743151.8890141861</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651714.9559953923</v>
+        <v>651714.9559953921</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>651714.9559953922</v>
+        <v>651714.9559953921</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779352.4549391626</v>
+      </c>
+      <c r="C2" t="n">
         <v>779352.4549391627</v>
       </c>
-      <c r="C2" t="n">
-        <v>779352.4549391628</v>
-      </c>
       <c r="D2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>779989.6813710703</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="F2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710704</v>
       </c>
       <c r="G2" t="n">
         <v>779989.6813710682</v>
       </c>
       <c r="H2" t="n">
-        <v>779989.681371068</v>
+        <v>779989.6813710704</v>
       </c>
       <c r="I2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710679</v>
       </c>
       <c r="J2" t="n">
         <v>770068.3758827552</v>
       </c>
       <c r="K2" t="n">
-        <v>770068.3758827546</v>
+        <v>770068.3758827543</v>
       </c>
       <c r="L2" t="n">
-        <v>771253.4425503199</v>
+        <v>771253.4425503197</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710685</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710679</v>
+        <v>779989.681371069</v>
       </c>
       <c r="O2" t="n">
         <v>669647.3002055946</v>
       </c>
       <c r="P2" t="n">
-        <v>669647.300205595</v>
+        <v>669647.3002055945</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72868.15715554418</v>
+        <v>72868.15715554421</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1744.122956496176</v>
+        <v>1744.122956496108</v>
       </c>
       <c r="M3" t="n">
-        <v>219346.988303707</v>
+        <v>219346.9883037068</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>408996.6277656587</v>
       </c>
       <c r="C4" t="n">
-        <v>408996.6277656588</v>
+        <v>408996.6277656587</v>
       </c>
       <c r="D4" t="n">
-        <v>408123.0807897231</v>
+        <v>408123.0807897232</v>
       </c>
       <c r="E4" t="n">
         <v>173334.8288885302</v>
@@ -26441,10 +26441,10 @@
         <v>173334.8288885302</v>
       </c>
       <c r="J4" t="n">
-        <v>161594.2402273667</v>
+        <v>161594.2402273668</v>
       </c>
       <c r="K4" t="n">
-        <v>161594.2402273667</v>
+        <v>161594.2402273668</v>
       </c>
       <c r="L4" t="n">
         <v>162996.6141686113</v>
@@ -26456,10 +26456,10 @@
         <v>173334.8288885302</v>
       </c>
       <c r="O4" t="n">
-        <v>106877.9487451704</v>
+        <v>106877.9487451703</v>
       </c>
       <c r="P4" t="n">
-        <v>106877.9487451704</v>
+        <v>106877.9487451703</v>
       </c>
     </row>
     <row r="5">
@@ -26493,13 +26493,13 @@
         <v>76006.05493846987</v>
       </c>
       <c r="J5" t="n">
-        <v>78760.92105619794</v>
+        <v>78760.92105619796</v>
       </c>
       <c r="K5" t="n">
         <v>78760.92105619796</v>
       </c>
       <c r="L5" t="n">
-        <v>78431.86153741088</v>
+        <v>78431.86153741089</v>
       </c>
       <c r="M5" t="n">
         <v>76006.05493846987</v>
@@ -26508,10 +26508,10 @@
         <v>76006.05493846987</v>
       </c>
       <c r="O5" t="n">
-        <v>70477.39520003842</v>
+        <v>70477.3952000384</v>
       </c>
       <c r="P5" t="n">
-        <v>70477.39520003842</v>
+        <v>70477.3952000384</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>333989.0733986793</v>
+        <v>334004.1656036454</v>
       </c>
       <c r="C6" t="n">
-        <v>336293.3944757789</v>
+        <v>336308.486680745</v>
       </c>
       <c r="D6" t="n">
-        <v>334691.0108748473</v>
+        <v>334691.010874847</v>
       </c>
       <c r="E6" t="n">
-        <v>-313187.4172354953</v>
+        <v>-313187.4172354969</v>
       </c>
       <c r="F6" t="n">
-        <v>530648.797544069</v>
+        <v>530648.7975440704</v>
       </c>
       <c r="G6" t="n">
         <v>530648.7975440681</v>
       </c>
       <c r="H6" t="n">
+        <v>530648.7975440704</v>
+      </c>
+      <c r="I6" t="n">
         <v>530648.7975440678</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>456818.9487449928</v>
+      </c>
+      <c r="K6" t="n">
+        <v>529687.1059005362</v>
+      </c>
+      <c r="L6" t="n">
+        <v>528057.8537856416</v>
+      </c>
+      <c r="M6" t="n">
+        <v>311301.8092403616</v>
+      </c>
+      <c r="N6" t="n">
         <v>530648.797544069</v>
       </c>
-      <c r="J6" t="n">
-        <v>456583.9704571118</v>
-      </c>
-      <c r="K6" t="n">
-        <v>529452.1276126553</v>
-      </c>
-      <c r="L6" t="n">
-        <v>527850.9428662029</v>
-      </c>
-      <c r="M6" t="n">
-        <v>311301.8092403624</v>
-      </c>
-      <c r="N6" t="n">
-        <v>530648.7975440678</v>
-      </c>
       <c r="O6" t="n">
-        <v>489388.2093876101</v>
+        <v>492001.5815731083</v>
       </c>
       <c r="P6" t="n">
-        <v>489388.2093876105</v>
+        <v>492001.5815731083</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="F2" t="n">
         <v>84.01547101898376</v>
       </c>
       <c r="G2" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="H2" t="n">
         <v>84.01547101898376</v>
@@ -26709,25 +26709,25 @@
         <v>84.01547101898376</v>
       </c>
       <c r="J2" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="K2" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="L2" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="M2" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="N2" t="n">
         <v>84.01547101898376</v>
       </c>
       <c r="O2" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="P2" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
     </row>
     <row r="3">
@@ -26770,7 +26770,7 @@
         <v>635.6403214700873</v>
       </c>
       <c r="M3" t="n">
-        <v>635.6403214700873</v>
+        <v>635.6403214700872</v>
       </c>
       <c r="N3" t="n">
         <v>635.6403214700873</v>
@@ -26819,19 +26819,19 @@
         <v>976.5674721993189</v>
       </c>
       <c r="L4" t="n">
-        <v>968.1407804258953</v>
+        <v>968.1407804258954</v>
       </c>
       <c r="M4" t="n">
-        <v>906.0197252849839</v>
+        <v>906.0197252849838</v>
       </c>
       <c r="N4" t="n">
-        <v>906.0197252849839</v>
+        <v>906.0197252849838</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0197252849839</v>
+        <v>906.0197252849838</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0197252849839</v>
+        <v>906.0197252849838</v>
       </c>
     </row>
   </sheetData>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.18015369562022</v>
+        <v>2.180153695620135</v>
       </c>
       <c r="M2" t="n">
-        <v>16.07195938605658</v>
+        <v>16.07195938605663</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>828.5959326289374</v>
+        <v>828.5959326289367</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27423,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.114653472833368</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>143.8126968518503</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27435,7 +27435,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>245.2892318185371</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>362.8550549367576</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27548,22 +27548,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>161.1149336167473</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1707514181402</v>
+        <v>155.3511267657281</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>148.5744291855468</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>16.21307073658342</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.28599750998295</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>5.892868265313084</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>3.114653472833368</v>
       </c>
       <c r="R5" t="n">
-        <v>143.8126968518503</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27700,7 +27700,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>142.1352358015972</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27712,7 +27712,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>105.359398494785</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>93.2817884109317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>164.8071253621264</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>193.2886829531102</v>
       </c>
       <c r="U6" t="n">
-        <v>220.6315523179333</v>
+        <v>219.0653363392634</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>198.8066500355929</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>15.39344608417142</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>82.82706289750146</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>221.0695436865701</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>222.3746750348442</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y7" t="n">
         <v>211.7086076103834</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>380.4010082235434</v>
       </c>
       <c r="F8" t="n">
         <v>391.5733082265764</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>324.1720646006321</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27897,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>202.1786694369367</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27943,19 +27943,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>132.3371525163108</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>122.0407796480756</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>96.93270672136141</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27991,16 +27991,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>219.3219359460943</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>236.3922456457846</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>190.4702476883424</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>190.3799582621693</v>
       </c>
     </row>
     <row r="10">
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>78.05644260153773</v>
+        <v>82.60196964844833</v>
       </c>
       <c r="K10" t="n">
-        <v>11.51228135765841</v>
+        <v>6.966754310747802</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
-        <v>161.9906538620344</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>212.6428519131464</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="C11" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="D11" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="E11" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="F11" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="G11" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="H11" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="I11" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="T11" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="U11" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="V11" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="W11" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="X11" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="Y11" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="C13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="D13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="E13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="F13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="G13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="H13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="I13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="J13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="K13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="L13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="M13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="N13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="O13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="P13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="R13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="S13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="T13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="U13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="V13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="W13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="X13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
     </row>
     <row r="14">
@@ -28523,7 +28523,7 @@
         <v>84.01547101898376</v>
       </c>
       <c r="O16" t="n">
-        <v>84.01547101898376</v>
+        <v>84.01547101898373</v>
       </c>
       <c r="P16" t="n">
         <v>84.01547101898376</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="C17" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="D17" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="E17" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="F17" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="G17" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="H17" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="I17" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="T17" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="U17" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="V17" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="W17" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="X17" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="C19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="D19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="E19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="F19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="G19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="H19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="I19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="J19" t="n">
-        <v>84.01547101898349</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="K19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="L19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="M19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="N19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="O19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="P19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="R19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="S19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="T19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="U19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="V19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="W19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="X19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="Y19" t="n">
-        <v>84.01547101898377</v>
+        <v>84.01547101898376</v>
       </c>
     </row>
     <row r="20">
@@ -28988,7 +28988,7 @@
         <v>84.01547101898376</v>
       </c>
       <c r="L22" t="n">
-        <v>84.01547101898379</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="M22" t="n">
         <v>84.01547101898376</v>
@@ -29219,7 +29219,7 @@
         <v>84.01547101898376</v>
       </c>
       <c r="J25" t="n">
-        <v>84.01547101898376</v>
+        <v>84.01547101898377</v>
       </c>
       <c r="K25" t="n">
         <v>84.01547101898376</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="C26" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="D26" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="E26" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="F26" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="G26" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="H26" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="I26" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="T26" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="U26" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="V26" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="W26" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="X26" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="Y26" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="C28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="D28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="E28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="F28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="G28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="H28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="I28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="J28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="K28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="L28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="M28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="N28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="O28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="P28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="R28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="S28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="T28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="U28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="V28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="W28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="X28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="Y28" t="n">
-        <v>65.76335793730691</v>
+        <v>65.76335793730699</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="C29" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="D29" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="E29" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="F29" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="G29" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="H29" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="I29" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="T29" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="U29" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="V29" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="W29" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="X29" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="Y29" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="C31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="D31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="E31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="F31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="G31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="H31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="I31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="J31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="K31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="L31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="M31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="N31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="O31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="P31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="R31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="S31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="T31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="U31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="V31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="W31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="X31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
       <c r="Y31" t="n">
-        <v>65.76335793730695</v>
+        <v>65.76335793730699</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="C32" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="D32" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="E32" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="F32" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="G32" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="H32" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="I32" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="T32" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="U32" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="V32" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="W32" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="X32" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="Y32" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="C34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="D34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="E34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="F34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="G34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="H34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="I34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="J34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="K34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="L34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="M34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="N34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="O34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="P34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="R34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="S34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="T34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="U34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="V34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="W34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="X34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
       <c r="Y34" t="n">
-        <v>67.94351163292716</v>
+        <v>67.94351163292713</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="C35" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="D35" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="E35" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="F35" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="G35" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="H35" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="I35" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="T35" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="U35" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="V35" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="W35" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="X35" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="Y35" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="C37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="D37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="E37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="F37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="G37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="H37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="I37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="J37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="K37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="L37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898393</v>
       </c>
       <c r="M37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="N37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="O37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="P37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="R37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="S37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="T37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="U37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="V37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="W37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="X37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="Y37" t="n">
-        <v>84.01547101898375</v>
+        <v>84.01547101898376</v>
       </c>
     </row>
     <row r="38">
@@ -30410,7 +30410,7 @@
         <v>84.01547101898376</v>
       </c>
       <c r="L40" t="n">
-        <v>84.01547101898379</v>
+        <v>84.01547101898376</v>
       </c>
       <c r="M40" t="n">
         <v>84.01547101898376</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="C41" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="D41" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="E41" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="F41" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="G41" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="H41" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="I41" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="T41" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="U41" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="V41" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="W41" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="X41" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="Y41" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="C43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="D43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="E43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="F43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="G43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="H43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="I43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="J43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="K43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="L43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="M43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="N43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="O43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="P43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="R43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="S43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="T43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="U43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="V43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="W43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="X43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="C44" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="D44" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="E44" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="F44" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="G44" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="H44" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="I44" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="T44" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="U44" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="V44" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="W44" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="X44" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="Y44" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="C46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="D46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="E46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="F46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="G46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="H46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="I46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="J46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="K46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="L46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="M46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="N46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="O46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="P46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="R46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="S46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="T46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="U46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="V46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="W46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="X46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
       <c r="Y46" t="n">
-        <v>18.25211308167681</v>
+        <v>18.25211308167677</v>
       </c>
     </row>
   </sheetData>
@@ -33654,22 +33654,22 @@
         <v>26.16985504424333</v>
       </c>
       <c r="I35" t="n">
-        <v>98.51466731045446</v>
+        <v>98.51466731045444</v>
       </c>
       <c r="J35" t="n">
-        <v>216.8811165200878</v>
+        <v>216.8811165200877</v>
       </c>
       <c r="K35" t="n">
         <v>325.0485730339723</v>
       </c>
       <c r="L35" t="n">
-        <v>403.2514976096113</v>
+        <v>403.2514976096112</v>
       </c>
       <c r="M35" t="n">
-        <v>448.694989336018</v>
+        <v>448.6949893360179</v>
       </c>
       <c r="N35" t="n">
-        <v>455.9553433596437</v>
+        <v>455.9553433596436</v>
       </c>
       <c r="O35" t="n">
         <v>430.5457013631886</v>
@@ -33678,13 +33678,13 @@
         <v>367.4607950866347</v>
       </c>
       <c r="Q35" t="n">
-        <v>275.9477538297604</v>
+        <v>275.9477538297603</v>
       </c>
       <c r="R35" t="n">
         <v>160.5167491197804</v>
       </c>
       <c r="S35" t="n">
-        <v>58.22976412261153</v>
+        <v>58.22976412261152</v>
       </c>
       <c r="T35" t="n">
         <v>11.18599198888565</v>
@@ -33733,22 +33733,22 @@
         <v>13.20452818752012</v>
       </c>
       <c r="I36" t="n">
-        <v>47.0733634296244</v>
+        <v>47.07336342962439</v>
       </c>
       <c r="J36" t="n">
-        <v>129.1729072149732</v>
+        <v>129.1729072149731</v>
       </c>
       <c r="K36" t="n">
-        <v>220.7770727883416</v>
+        <v>220.7770727883415</v>
       </c>
       <c r="L36" t="n">
-        <v>296.8620199469498</v>
+        <v>296.8620199469497</v>
       </c>
       <c r="M36" t="n">
         <v>346.4239752011975</v>
       </c>
       <c r="N36" t="n">
-        <v>355.5927870080633</v>
+        <v>355.5927870080632</v>
       </c>
       <c r="O36" t="n">
         <v>325.2979294225266</v>
@@ -33760,16 +33760,16 @@
         <v>174.5252444911832</v>
       </c>
       <c r="R36" t="n">
-        <v>84.8879659502883</v>
+        <v>84.88796595028829</v>
       </c>
       <c r="S36" t="n">
-        <v>25.39562982477187</v>
+        <v>25.39562982477186</v>
       </c>
       <c r="T36" t="n">
-        <v>5.510881655009529</v>
+        <v>5.510881655009528</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08994910209482372</v>
+        <v>0.08994910209482369</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33812,13 +33812,13 @@
         <v>10.19108580979911</v>
       </c>
       <c r="I37" t="n">
-        <v>34.47046202332868</v>
+        <v>34.47046202332867</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0389308208667</v>
+        <v>81.03893082086668</v>
       </c>
       <c r="K37" t="n">
-        <v>133.1718575145527</v>
+        <v>133.1718575145526</v>
       </c>
       <c r="L37" t="n">
         <v>170.4141281528165</v>
@@ -33836,19 +33836,19 @@
         <v>138.6321120793121</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.98168854198317</v>
+        <v>95.98168854198316</v>
       </c>
       <c r="R37" t="n">
         <v>51.53896770477132</v>
       </c>
       <c r="S37" t="n">
-        <v>19.9757786271829</v>
+        <v>19.97577862718289</v>
       </c>
       <c r="T37" t="n">
-        <v>4.897556575261326</v>
+        <v>4.897556575261325</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06252199883312341</v>
+        <v>0.0625219988331234</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34704,10 +34704,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>6.598225711743296</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>6.876045741711437</v>
@@ -34938,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M5" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>6.876045741711437</v>
@@ -34953,7 +34953,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="N8" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="N8" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="O8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>15.30273751513505</v>
@@ -35415,10 +35415,10 @@
         <v>429.1041345601565</v>
       </c>
       <c r="L11" t="n">
-        <v>305.8057235494757</v>
+        <v>585.1462971900745</v>
       </c>
       <c r="M11" t="n">
-        <v>667.8622896015777</v>
+        <v>388.5217159609791</v>
       </c>
       <c r="N11" t="n">
         <v>663.8892041750369</v>
@@ -35494,16 +35494,16 @@
         <v>347.4008708265612</v>
       </c>
       <c r="L12" t="n">
-        <v>158.3076401670756</v>
+        <v>529.1479854705348</v>
       </c>
       <c r="M12" t="n">
-        <v>669.9950050291791</v>
+        <v>204.2899412791792</v>
       </c>
       <c r="N12" t="n">
-        <v>419.393195299031</v>
+        <v>224.25107492473</v>
       </c>
       <c r="O12" t="n">
-        <v>182.7016849780822</v>
+        <v>472.7085237989237</v>
       </c>
       <c r="P12" t="n">
         <v>445.5686283592358</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>71.6952217231777</v>
+        <v>71.69522172317768</v>
       </c>
       <c r="K13" t="n">
         <v>194.9178367076536</v>
       </c>
       <c r="L13" t="n">
-        <v>282.0196244321165</v>
+        <v>282.0196244321164</v>
       </c>
       <c r="M13" t="n">
         <v>303.2771522940819</v>
@@ -35588,7 +35588,7 @@
         <v>219.9261423631893</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.83511630927256</v>
+        <v>93.83511630927255</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>128.4263158887153</v>
       </c>
       <c r="K15" t="n">
-        <v>82.93563381398258</v>
+        <v>347.4008708265612</v>
       </c>
       <c r="L15" t="n">
-        <v>158.3076401670756</v>
+        <v>529.1479854705348</v>
       </c>
       <c r="M15" t="n">
-        <v>669.9950050291791</v>
+        <v>204.2899412791792</v>
       </c>
       <c r="N15" t="n">
-        <v>608.4588816748176</v>
+        <v>224.25107492473</v>
       </c>
       <c r="O15" t="n">
-        <v>576.5640042548117</v>
+        <v>472.7085237989237</v>
       </c>
       <c r="P15" t="n">
-        <v>127.1058597192987</v>
+        <v>445.5686283592358</v>
       </c>
       <c r="Q15" t="n">
         <v>244.6207581410108</v>
@@ -35819,7 +35819,7 @@
         <v>303.55311112454</v>
       </c>
       <c r="O16" t="n">
-        <v>270.6159385759238</v>
+        <v>270.6159385759237</v>
       </c>
       <c r="P16" t="n">
         <v>219.9261423631893</v>
@@ -35971,19 +35971,19 @@
         <v>529.1479854705348</v>
       </c>
       <c r="M18" t="n">
-        <v>204.2899412791792</v>
+        <v>494.2967801000208</v>
       </c>
       <c r="N18" t="n">
         <v>224.25107492473</v>
       </c>
       <c r="O18" t="n">
-        <v>576.5640042548117</v>
+        <v>182.7016849780822</v>
       </c>
       <c r="P18" t="n">
         <v>445.5686283592358</v>
       </c>
       <c r="Q18" t="n">
-        <v>140.7652776851233</v>
+        <v>244.6207581410108</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>71.69522172317741</v>
+        <v>71.69522172317768</v>
       </c>
       <c r="K19" t="n">
         <v>194.9178367076536</v>
       </c>
       <c r="L19" t="n">
-        <v>282.0196244321165</v>
+        <v>282.0196244321164</v>
       </c>
       <c r="M19" t="n">
         <v>303.2771522940819</v>
@@ -36062,7 +36062,7 @@
         <v>219.9261423631893</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.83511630927256</v>
+        <v>93.83511630927255</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>585.1462971900745</v>
       </c>
       <c r="M20" t="n">
-        <v>399.1693471396098</v>
+        <v>388.5217159609791</v>
       </c>
       <c r="N20" t="n">
         <v>663.8892041750369</v>
@@ -36144,7 +36144,7 @@
         <v>265.9570546152156</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>10.64763117863072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>128.4263158887153</v>
       </c>
       <c r="K21" t="n">
-        <v>135.043361330579</v>
+        <v>347.4008708265612</v>
       </c>
       <c r="L21" t="n">
-        <v>158.3076401670756</v>
+        <v>529.1479854705348</v>
       </c>
       <c r="M21" t="n">
         <v>204.2899412791792</v>
       </c>
       <c r="N21" t="n">
-        <v>703.5934492682835</v>
+        <v>224.25107492473</v>
       </c>
       <c r="O21" t="n">
-        <v>576.5640042548117</v>
+        <v>472.7085237989237</v>
       </c>
       <c r="P21" t="n">
         <v>445.5686283592358</v>
@@ -36284,7 +36284,7 @@
         <v>194.9178367076536</v>
       </c>
       <c r="L22" t="n">
-        <v>282.0196244321165</v>
+        <v>282.0196244321164</v>
       </c>
       <c r="M22" t="n">
         <v>303.2771522940819</v>
@@ -36360,13 +36360,13 @@
         <v>204.9318271654753</v>
       </c>
       <c r="K23" t="n">
-        <v>149.7635609195578</v>
+        <v>429.1041345601565</v>
       </c>
       <c r="L23" t="n">
         <v>585.1462971900745</v>
       </c>
       <c r="M23" t="n">
-        <v>667.8622896015777</v>
+        <v>399.1693471396098</v>
       </c>
       <c r="N23" t="n">
         <v>663.8892041750369</v>
@@ -36381,7 +36381,7 @@
         <v>265.9570546152156</v>
       </c>
       <c r="R23" t="n">
-        <v>10.64763117863072</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>529.1479854705348</v>
       </c>
       <c r="M24" t="n">
-        <v>418.8972294632287</v>
+        <v>204.2899412791792</v>
       </c>
       <c r="N24" t="n">
         <v>224.25107492473</v>
       </c>
       <c r="O24" t="n">
-        <v>576.5640042548117</v>
+        <v>472.7085237989237</v>
       </c>
       <c r="P24" t="n">
-        <v>127.1058597192987</v>
+        <v>445.5686283592358</v>
       </c>
       <c r="Q24" t="n">
         <v>244.6207581410108</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>71.69522172317768</v>
+        <v>71.6952217231777</v>
       </c>
       <c r="K25" t="n">
         <v>194.9178367076536</v>
@@ -36682,13 +36682,13 @@
         <v>529.1479854705348</v>
       </c>
       <c r="M27" t="n">
-        <v>494.2967801000212</v>
+        <v>204.2899412791792</v>
       </c>
       <c r="N27" t="n">
         <v>224.25107492473</v>
       </c>
       <c r="O27" t="n">
-        <v>182.7016849780822</v>
+        <v>472.7085237989242</v>
       </c>
       <c r="P27" t="n">
         <v>445.5686283592358</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.44310864150083</v>
+        <v>53.44310864150091</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6657236259767</v>
+        <v>176.6657236259768</v>
       </c>
       <c r="L28" t="n">
-        <v>263.7675113504396</v>
+        <v>263.7675113504397</v>
       </c>
       <c r="M28" t="n">
         <v>285.0250392124051</v>
       </c>
       <c r="N28" t="n">
-        <v>285.3009980428631</v>
+        <v>285.3009980428632</v>
       </c>
       <c r="O28" t="n">
-        <v>252.3638254942469</v>
+        <v>252.363825494247</v>
       </c>
       <c r="P28" t="n">
-        <v>201.6740292815125</v>
+        <v>201.6740292815126</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.5830032275957</v>
+        <v>75.58300322759578</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.44310864150087</v>
+        <v>53.44310864150091</v>
       </c>
       <c r="K31" t="n">
         <v>176.6657236259768</v>
       </c>
       <c r="L31" t="n">
-        <v>263.7675113504396</v>
+        <v>263.7675113504397</v>
       </c>
       <c r="M31" t="n">
         <v>285.0250392124051</v>
@@ -37007,10 +37007,10 @@
         <v>252.363825494247</v>
       </c>
       <c r="P31" t="n">
-        <v>201.6740292815125</v>
+        <v>201.6740292815126</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.58300322759574</v>
+        <v>75.58300322759578</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>204.9318271654753</v>
       </c>
       <c r="K32" t="n">
-        <v>429.1041345601565</v>
+        <v>395.7378398613489</v>
       </c>
       <c r="L32" t="n">
         <v>585.1462971900745</v>
       </c>
       <c r="M32" t="n">
-        <v>634.4959949027691</v>
+        <v>667.8622896015777</v>
       </c>
       <c r="N32" t="n">
         <v>663.8892041750369</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>128.4263158887153</v>
+        <v>24.57083543282778</v>
       </c>
       <c r="K33" t="n">
         <v>347.4008708265612</v>
@@ -37168,7 +37168,7 @@
         <v>445.5686283592358</v>
       </c>
       <c r="Q33" t="n">
-        <v>140.7652776851238</v>
+        <v>244.6207581410108</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>55.62326233712108</v>
+        <v>55.62326233712105</v>
       </c>
       <c r="K34" t="n">
         <v>178.845877321597</v>
       </c>
       <c r="L34" t="n">
-        <v>265.9476650460599</v>
+        <v>265.9476650460598</v>
       </c>
       <c r="M34" t="n">
         <v>287.2051929080253</v>
       </c>
       <c r="N34" t="n">
-        <v>287.4811517384834</v>
+        <v>287.4811517384833</v>
       </c>
       <c r="O34" t="n">
-        <v>254.5439791898672</v>
+        <v>254.5439791898671</v>
       </c>
       <c r="P34" t="n">
         <v>203.8541829771327</v>
       </c>
       <c r="Q34" t="n">
-        <v>77.76315692321594</v>
+        <v>77.76315692321592</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>204.9318271654753</v>
+        <v>204.9318271654752</v>
       </c>
       <c r="K35" t="n">
         <v>429.1041345601565</v>
       </c>
       <c r="L35" t="n">
-        <v>585.1462971900745</v>
+        <v>585.1462971900744</v>
       </c>
       <c r="M35" t="n">
-        <v>388.5217159609791</v>
+        <v>399.1693471396089</v>
       </c>
       <c r="N35" t="n">
         <v>663.8892041750369</v>
@@ -37326,10 +37326,10 @@
         <v>458.0265075028478</v>
       </c>
       <c r="Q35" t="n">
-        <v>265.9570546152156</v>
+        <v>265.9570546152155</v>
       </c>
       <c r="R35" t="n">
-        <v>10.64763117863072</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>128.4263158887153</v>
       </c>
       <c r="K36" t="n">
-        <v>347.4008708265612</v>
+        <v>347.4008708265611</v>
       </c>
       <c r="L36" t="n">
-        <v>529.1479854705348</v>
+        <v>529.1479854705346</v>
       </c>
       <c r="M36" t="n">
-        <v>494.2967801000208</v>
+        <v>204.2899412791792</v>
       </c>
       <c r="N36" t="n">
-        <v>224.25107492473</v>
+        <v>224.2510749247299</v>
       </c>
       <c r="O36" t="n">
-        <v>182.7016849780822</v>
+        <v>472.7085237989249</v>
       </c>
       <c r="P36" t="n">
         <v>445.5686283592358</v>
@@ -37466,10 +37466,10 @@
         <v>71.69522172317767</v>
       </c>
       <c r="K37" t="n">
-        <v>194.9178367076536</v>
+        <v>194.9178367076535</v>
       </c>
       <c r="L37" t="n">
-        <v>282.0196244321164</v>
+        <v>282.0196244321166</v>
       </c>
       <c r="M37" t="n">
         <v>303.2771522940819</v>
@@ -37557,7 +37557,7 @@
         <v>663.8892041750369</v>
       </c>
       <c r="O38" t="n">
-        <v>301.9070975636486</v>
+        <v>301.9070975636481</v>
       </c>
       <c r="P38" t="n">
         <v>458.0265075028478</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>128.4263158887153</v>
+        <v>24.57083543282753</v>
       </c>
       <c r="K39" t="n">
         <v>347.4008708265612</v>
@@ -37633,13 +37633,13 @@
         <v>204.2899412791792</v>
       </c>
       <c r="N39" t="n">
-        <v>438.8583631087794</v>
+        <v>224.25107492473</v>
       </c>
       <c r="O39" t="n">
         <v>576.5640042548117</v>
       </c>
       <c r="P39" t="n">
-        <v>127.1058597192987</v>
+        <v>445.5686283592358</v>
       </c>
       <c r="Q39" t="n">
         <v>244.6207581410108</v>
@@ -37706,7 +37706,7 @@
         <v>194.9178367076536</v>
       </c>
       <c r="L40" t="n">
-        <v>282.0196244321165</v>
+        <v>282.0196244321164</v>
       </c>
       <c r="M40" t="n">
         <v>303.2771522940819</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>137.9062441847815</v>
+        <v>35.83521199340149</v>
       </c>
       <c r="K41" t="n">
         <v>429.1041345601565</v>
@@ -37800,7 +37800,7 @@
         <v>458.0265075028478</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.64206395531087</v>
+        <v>155.71309614669</v>
       </c>
       <c r="R41" t="n">
         <v>10.64763117863072</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>128.4263158887153</v>
+        <v>24.57083543282753</v>
       </c>
       <c r="K42" t="n">
-        <v>82.93563381398258</v>
+        <v>347.4008708265612</v>
       </c>
       <c r="L42" t="n">
         <v>529.1479854705348</v>
@@ -37870,7 +37870,7 @@
         <v>204.2899412791792</v>
       </c>
       <c r="N42" t="n">
-        <v>384.8608314814207</v>
+        <v>224.25107492473</v>
       </c>
       <c r="O42" t="n">
         <v>576.5640042548117</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.931863785870732</v>
+        <v>5.931863785870689</v>
       </c>
       <c r="K43" t="n">
         <v>129.1544787703466</v>
       </c>
       <c r="L43" t="n">
-        <v>216.2562664948095</v>
+        <v>216.2562664948094</v>
       </c>
       <c r="M43" t="n">
         <v>237.513794356775</v>
@@ -37958,7 +37958,7 @@
         <v>154.1627844258824</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.0717583719656</v>
+        <v>28.07175837196556</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>35.83521199340149</v>
+        <v>137.9062441847805</v>
       </c>
       <c r="K44" t="n">
         <v>429.1041345601565</v>
@@ -38037,10 +38037,10 @@
         <v>458.0265075028478</v>
       </c>
       <c r="Q44" t="n">
-        <v>166.3607273253211</v>
+        <v>53.64206395531087</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>10.64763117863072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>128.4263158887153</v>
       </c>
       <c r="K45" t="n">
-        <v>197.8783539563656</v>
+        <v>347.4008708265612</v>
       </c>
       <c r="L45" t="n">
-        <v>158.3076401670756</v>
+        <v>529.1479854705348</v>
       </c>
       <c r="M45" t="n">
-        <v>669.9950050291791</v>
+        <v>204.2899412791792</v>
       </c>
       <c r="N45" t="n">
-        <v>703.5934492682835</v>
+        <v>224.25107492473</v>
       </c>
       <c r="O45" t="n">
-        <v>576.5640042548117</v>
+        <v>472.7085237989237</v>
       </c>
       <c r="P45" t="n">
-        <v>127.1058597192987</v>
+        <v>445.5686283592358</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.54347040516171</v>
+        <v>244.6207581410108</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.931863785870732</v>
+        <v>5.931863785870689</v>
       </c>
       <c r="K46" t="n">
         <v>129.1544787703466</v>
       </c>
       <c r="L46" t="n">
-        <v>216.2562664948095</v>
+        <v>216.2562664948094</v>
       </c>
       <c r="M46" t="n">
         <v>237.513794356775</v>
@@ -38195,7 +38195,7 @@
         <v>154.1627844258824</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.0717583719656</v>
+        <v>28.07175837196556</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
